--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
     <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
-    <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="359">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1377,6 +1377,54 @@
   </si>
   <si>
     <t>/dev/CheckOut.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dev/CheckOutCnl.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apply/ApplyRequest.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/approval/RequestStatus.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/ModuleInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/PrgListReport.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/ConfigReqReport.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/administrator/SysInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/PopSysInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행모듈정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/administrator/RgtManage.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/administrator/menu.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1455,7 +1503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,6 +1543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,7 +1665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1717,9 +1771,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,36 +1779,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,9 +1791,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1789,9 +1807,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1803,6 +1818,48 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1822,7 +1879,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{76282230-B169-4DFE-AEE1-A5EB587087E5}" diskRevisions="1" revisionId="32" version="20">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" diskRevisions="1" revisionId="53" version="35">
   <header guid="{2D78AF63-E729-44B7-AF18-523E0A775831}" dateTime="2019-06-07T12:57:35" maxSheetId="3" userName="hyjung" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1938,6 +1995,96 @@
     </sheetIdMap>
   </header>
   <header guid="{76282230-B169-4DFE-AEE1-A5EB587087E5}" dateTime="2019-06-28T02:39:17" maxSheetId="3" userName="lg-pc" r:id="rId20" minRId="32">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E9863A09-C1A1-4FD9-B3CA-323ACCD6FEF2}" dateTime="2019-06-28T14:57:45" maxSheetId="3" userName="lg-pc" r:id="rId21" minRId="33">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EEC4DBD8-6E7C-44C6-AE78-7620127FE30D}" dateTime="2019-06-28T14:57:54" maxSheetId="3" userName="lg-pc" r:id="rId22">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C0184A68-E0F3-4766-8E53-3F4013B8C846}" dateTime="2019-07-01T16:51:37" maxSheetId="3" userName="lg-pc" r:id="rId23" minRId="36">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4EFC94E-F3B8-4C26-98AA-35E92929FA15}" dateTime="2019-07-02T00:21:14" maxSheetId="3" userName="lg-pc" r:id="rId24" minRId="37">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{03479478-2F70-4585-BFAA-97E8EFD03F3D}" dateTime="2019-07-02T00:24:28" maxSheetId="3" userName="lg-pc" r:id="rId25" minRId="38">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{773BA4EC-A20C-493E-B092-7B8A5F8D2C21}" dateTime="2019-07-02T00:30:44" maxSheetId="3" userName="lg-pc" r:id="rId26" minRId="39" maxRId="40">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F9F73D1-7208-4690-A2B2-ACFC99C89054}" dateTime="2019-07-02T00:30:56" maxSheetId="3" userName="lg-pc" r:id="rId27">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D0CEAB7E-4FB5-4D2D-AA31-12A6CC662226}" dateTime="2019-07-02T01:58:30" maxSheetId="3" userName="lg-pc" r:id="rId28" minRId="41">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{44CD3330-443F-40D8-98CA-0D04EE3ED175}" dateTime="2019-07-02T12:02:54" maxSheetId="3" userName="lg-pc" r:id="rId29" minRId="42" maxRId="44">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CCC0595A-B8A5-4621-8A92-8C317B63587F}" dateTime="2019-07-02T12:39:34" maxSheetId="3" userName="lg-pc" r:id="rId30" minRId="47">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{530C00AF-9BA5-42A6-9655-FA2C257D2899}" dateTime="2019-07-02T15:15:56" maxSheetId="3" userName="lg-pc" r:id="rId31" minRId="48">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4DF42027-CBD6-46C0-AE70-8A4F162B7EDE}" dateTime="2019-07-02T16:58:20" maxSheetId="3" userName="lg-pc" r:id="rId32" minRId="49">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C9350DFF-5DED-4849-9D86-C421CCC38012}" dateTime="2019-07-03T15:22:51" maxSheetId="3" userName="lg-pc" r:id="rId33" minRId="50">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0DC9A1C3-2DA8-496C-BD4D-BDFBB237B47C}" dateTime="2019-07-03T17:53:51" maxSheetId="3" userName="lg-pc" r:id="rId34" minRId="51" maxRId="52">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" dateTime="2019-07-03T18:28:05" maxSheetId="3" userName="lg-pc" r:id="rId35" minRId="53">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2235,6 +2382,227 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="33" sId="1">
+    <nc r="J21" t="inlineStr">
+      <is>
+        <t>/dev/CheckOutCnl.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J1:J2 J4:J6 J8 J10:J12 J15 J21:J22 J25:J26 J29 J32:J38 J41:J44 J48 J52 J60:J61 J68:J1048576">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J1">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="36" sId="1">
+    <nc r="J22" t="inlineStr">
+      <is>
+        <t>/apply/ApplyRequest.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="37" sId="1">
+    <nc r="J25" t="inlineStr">
+      <is>
+        <t>/approval/RequestStatus.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="38" sId="1">
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>?</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="39" sId="1">
+    <oc r="J26" t="inlineStr">
+      <is>
+        <t>?</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="1">
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J26 J29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J26 J29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="41" sId="1">
+    <nc r="J32" t="inlineStr">
+      <is>
+        <t>/program/ModuleInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="42" sId="1" odxf="1" dxf="1">
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="43" sId="1" odxf="1" dxf="1">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="44" sId="1" odxf="1" dxf="1">
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -2244,6 +2612,97 @@
     <formula>Sheet2!$A$2:$D$70</formula>
   </rdn>
   <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="47" sId="1">
+    <nc r="J36" t="inlineStr">
+      <is>
+        <t>/report/PrgListReport.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="48" sId="1">
+    <nc r="J37" t="inlineStr">
+      <is>
+        <t>/report/ConfigReqReport.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="49" sId="1">
+    <nc r="J38" t="inlineStr">
+      <is>
+        <t>/administrator/SysInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="50" sId="1">
+    <nc r="J44" t="inlineStr">
+      <is>
+        <t>/modal/PopSysInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="51" sId="1">
+    <oc r="C32" t="inlineStr">
+      <is>
+        <t>실행모듈정보</t>
+      </is>
+    </oc>
+    <nc r="C32" t="inlineStr">
+      <is>
+        <t>실행모듈정보</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="1">
+    <nc r="J61" t="inlineStr">
+      <is>
+        <t>/administrator/RgtManage.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="53" sId="1">
+    <nc r="J60" t="inlineStr">
+      <is>
+        <t>/administrator/menu.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -2417,10 +2876,11 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{2D78AF63-E729-44B7-AF18-523E0A775831}" name="hyjung" id="-545717959" dateTime="2019-06-07T12:57:35"/>
   <userInfo guid="{2156CD64-5816-454C-91D9-8314110D8388}" name="Windows 사용자" id="-510581129" dateTime="2019-06-19T14:02:17"/>
+  <userInfo guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" name="lg-pc" id="-989692281" dateTime="2019-07-04T12:37:12"/>
 </users>
 </file>
 
@@ -2679,7 +3139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2690,106 +3150,106 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="10.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.75" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="2" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="40">
         <v>1</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="42">
         <v>27</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="42" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
@@ -2826,115 +3286,115 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="40">
         <v>1</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="42">
         <v>10</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="42" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54">
+      <c r="H5" s="43"/>
+      <c r="I5" s="42">
         <v>1</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="42">
         <v>26</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="42" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="45">
         <v>1</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="52" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>114</v>
       </c>
@@ -2960,36 +3420,36 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="54">
+      <c r="H8" s="43"/>
+      <c r="I8" s="42">
         <v>1</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="51" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>114</v>
       </c>
@@ -3010,7 +3470,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3034,67 +3494,67 @@
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="54">
+      <c r="H11" s="43"/>
+      <c r="I11" s="42">
         <v>1</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="51" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="54">
+      <c r="H12" s="44"/>
+      <c r="I12" s="42">
         <v>1</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="51" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>121</v>
       </c>
@@ -3119,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>121</v>
       </c>
@@ -3145,36 +3605,36 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="54">
+      <c r="H15" s="43"/>
+      <c r="I15" s="42">
         <v>1</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="51" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>124</v>
       </c>
@@ -3197,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>124</v>
       </c>
@@ -3220,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>124</v>
       </c>
@@ -3243,7 +3703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>124</v>
       </c>
@@ -3266,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>124</v>
       </c>
@@ -3289,59 +3749,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="54" t="s">
+      <c r="E21" s="44"/>
+      <c r="F21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="54">
+      <c r="H21" s="43"/>
+      <c r="I21" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="J21" s="51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="54">
+      <c r="H22" s="43"/>
+      <c r="I22" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3366,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>108</v>
       </c>
@@ -3393,61 +3859,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="54">
+      <c r="H25" s="43"/>
+      <c r="I25" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="60" t="s">
+      <c r="J25" s="51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60">
+      <c r="H26" s="48"/>
+      <c r="I26" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>138</v>
       </c>
@@ -3470,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>142</v>
       </c>
@@ -3497,34 +3969,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
+    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="54">
+      <c r="H29" s="43"/>
+      <c r="I29" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="J29" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>149</v>
       </c>
@@ -3549,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>149</v>
       </c>
@@ -3574,184 +4049,205 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="55" t="s">
+      <c r="C32" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="43"/>
+      <c r="F32" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="54">
+      <c r="H32" s="43"/>
+      <c r="I32" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="J32" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="54">
+      <c r="H33" s="43"/>
+      <c r="I33" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="J33" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="54" t="s">
+      <c r="E34" s="44"/>
+      <c r="F34" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="54">
+      <c r="H34" s="43"/>
+      <c r="I34" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
+      <c r="J34" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="54" t="s">
+      <c r="E35" s="44"/>
+      <c r="F35" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="54">
+      <c r="H35" s="43"/>
+      <c r="I35" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
+      <c r="J35" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="54" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="54">
+      <c r="H36" s="43"/>
+      <c r="I36" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="J36" s="51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="54" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="54">
+      <c r="H37" s="43"/>
+      <c r="I37" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="J37" s="51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="54">
+      <c r="H38" s="43"/>
+      <c r="I38" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>93</v>
       </c>
@@ -3776,7 +4272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>93</v>
       </c>
@@ -3801,111 +4297,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="57" t="s">
+      <c r="E41" s="50"/>
+      <c r="F41" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="57">
+      <c r="H41" s="46"/>
+      <c r="I41" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="57" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="57">
+      <c r="H42" s="46"/>
+      <c r="I42" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="57" t="s">
+      <c r="E43" s="50"/>
+      <c r="F43" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="57">
+      <c r="H43" s="46"/>
+      <c r="I43" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="57" t="s">
+    <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F44" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>161</v>
       </c>
@@ -3932,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>93</v>
       </c>
@@ -3957,7 +4456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>93</v>
       </c>
@@ -3984,34 +4483,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
+    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="F48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="55"/>
-      <c r="I48" s="54">
+      <c r="H48" s="43"/>
+      <c r="I48" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>138</v>
       </c>
@@ -4036,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>161</v>
       </c>
@@ -4061,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>138</v>
       </c>
@@ -4086,34 +4585,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="54" t="s">
+    <row r="52" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="F52" s="54" t="s">
+      <c r="F52" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="54" t="s">
+      <c r="G52" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="54">
+      <c r="H52" s="43"/>
+      <c r="I52" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>161</v>
       </c>
@@ -4138,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>161</v>
       </c>
@@ -4161,7 +4660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>200</v>
       </c>
@@ -4186,7 +4685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>93</v>
       </c>
@@ -4213,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>198</v>
       </c>
@@ -4238,7 +4737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>196</v>
       </c>
@@ -4263,7 +4762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>196</v>
       </c>
@@ -4288,57 +4787,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="54" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="54" t="s">
+      <c r="E60" s="43"/>
+      <c r="F60" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="54" t="s">
+      <c r="G60" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="55"/>
-      <c r="I60" s="54">
+      <c r="H60" s="43"/>
+      <c r="I60" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="54" t="s">
+      <c r="J60" s="51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="54" t="s">
+      <c r="E61" s="43"/>
+      <c r="F61" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="54" t="s">
+      <c r="G61" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="54">
+      <c r="H61" s="43"/>
+      <c r="I61" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -4363,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -4413,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -4438,7 +4943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -4463,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -4490,17 +4995,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I67">
-    <filterColumn colId="5">
+    <filterColumn colId="8">
       <filters>
-        <filter val="O"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1">
-      <selection activeCell="L34" sqref="L34"/>
+    <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
+      <selection activeCell="M4" sqref="K4:M4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <autoFilter ref="A1:I67"/>
+    </customSheetView>
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A10">
+      <selection activeCell="J35" sqref="J35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A1:I67">
         <filterColumn colId="8">
           <filters>
@@ -4509,15 +5020,9 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
-      <selection activeCell="M4" sqref="K4:M4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-      <autoFilter ref="A1:I67"/>
-    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5 F8:F12 F14:F22 F25:F26 F29:F38 F48 F52 F60:F67">
       <formula1>"O,X,-"</formula1>
     </dataValidation>
@@ -4549,203 +5054,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39" t="s">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39" t="s">
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39" t="s">
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="44" t="s">
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="46"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="58"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="44" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="44" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="44" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="44" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="44" t="s">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="44" t="s">
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="39" t="s">
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="26">
         <v>4</v>
       </c>
@@ -8497,20 +9002,27 @@
   </sheetData>
   <autoFilter ref="A2:D70"/>
   <customSheetViews>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
-      <selection activeCell="O27" sqref="O27"/>
+    <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
+      <selection activeCell="D2" sqref="D2:D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
-    <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
+      <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="A1:AU1"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AQ3:AU3"/>
@@ -8527,13 +9039,6 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="W2:AA2"/>
     <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -13,6 +13,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$D$70</definedName>
+    <definedName name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
+    <definedName name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$2:$D$70</definedName>
     <definedName name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
     <definedName name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$2:$D$70</definedName>
     <definedName name="Z_70C04772_DBF8_4CB2_8468_8EEB47E858EE_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
@@ -20,19 +22,16 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="938" activeSheetId="1"/>
     <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
     <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="363">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1392,10 +1391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파일위치 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/program/ModuleInfo.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1425,6 +1420,26 @@
   </si>
   <si>
     <t>/administrator/menu.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치 확인 (/winpop/RequestDetail.jsp)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치 확인 (/tab/BuildReleaseTab1.jsp)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치 확인 (/tab/BuildReleaseTab2.jsp)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치 확인 (파일없음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일위치 확인 (파일없음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1871,15 +1886,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" diskRevisions="1" revisionId="53" version="35">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B9A25F85-8FFA-46B1-87CD-703157626A89}" diskRevisions="1" revisionId="60" version="2">
   <header guid="{2D78AF63-E729-44B7-AF18-523E0A775831}" dateTime="2019-06-07T12:57:35" maxSheetId="3" userName="hyjung" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -2090,6 +2102,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{B9A25F85-8FFA-46B1-87CD-703157626A89}" dateTime="2019-07-04T16:36:18" maxSheetId="3" userName="Windows 사용자" r:id="rId36" minRId="54" maxRId="58">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -2108,7 +2126,6 @@
     <nc r="C11" t="inlineStr">
       <is>
         <t>개발계획/실적</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2126,7 +2143,6 @@
     <nc r="C5" t="inlineStr">
       <is>
         <t>공지사항</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2139,7 +2155,6 @@
     <nc r="C8" t="inlineStr">
       <is>
         <t>SR등록</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2147,13 +2162,11 @@
     <oc r="C11" t="inlineStr">
       <is>
         <t>개발계획/실적</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="C11" t="inlineStr">
       <is>
         <t>개발계획/실적</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2161,7 +2174,6 @@
     <nc r="J12" t="inlineStr">
       <is>
         <t>ing</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2184,13 +2196,11 @@
     <oc r="J12" t="inlineStr">
       <is>
         <t>ing</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="J12" t="inlineStr">
       <is>
         <t>/dev/ProgRegister.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2231,7 +2241,6 @@
     <nc r="J8" t="inlineStr">
       <is>
         <t>/register/SRStatus.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2247,7 +2256,6 @@
     <nc r="J5" t="inlineStr">
       <is>
         <t>/mypage/Notice.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2260,7 +2268,6 @@
     <nc r="J2" t="inlineStr">
       <is>
         <t>/login/ecamsLogin.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2276,7 +2283,6 @@
     <nc r="J11" t="inlineStr">
       <is>
         <t>/dev/DevPlan.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2289,7 +2295,6 @@
     <nc r="J6" t="inlineStr">
       <is>
         <t>/modal/PopNotice.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2328,13 +2333,11 @@
     <oc r="D28" t="inlineStr">
       <is>
         <t>정호윤</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="D28" t="inlineStr">
       <is>
         <t>최인숙</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2342,13 +2345,11 @@
     <oc r="D29" t="inlineStr">
       <is>
         <t>정호윤</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="D29" t="inlineStr">
       <is>
         <t>최인숙</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2356,13 +2357,11 @@
     <oc r="D30" t="inlineStr">
       <is>
         <t>정호윤</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="D30" t="inlineStr">
       <is>
         <t>최인숙</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2375,7 +2374,6 @@
     <nc r="J15" t="inlineStr">
       <is>
         <t>/dev/CheckOut.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2388,7 +2386,6 @@
     <nc r="J21" t="inlineStr">
       <is>
         <t>/dev/CheckOutCnl.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2426,7 +2423,6 @@
     <nc r="J22" t="inlineStr">
       <is>
         <t>/apply/ApplyRequest.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2439,7 +2435,6 @@
     <nc r="J25" t="inlineStr">
       <is>
         <t>/approval/RequestStatus.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2452,7 +2447,6 @@
     <nc r="J26" t="inlineStr">
       <is>
         <t>?</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2465,13 +2459,11 @@
     <oc r="J26" t="inlineStr">
       <is>
         <t>?</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="J26" t="inlineStr">
       <is>
         <t>파일위치 확인</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2479,7 +2471,6 @@
     <nc r="J29" t="inlineStr">
       <is>
         <t>파일위치 확인</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2515,7 +2506,6 @@
     <nc r="J32" t="inlineStr">
       <is>
         <t>/program/ModuleInfo.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2528,7 +2518,6 @@
     <nc r="J33" t="inlineStr">
       <is>
         <t>파일위치 확인</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
     <odxf>
@@ -2550,7 +2539,6 @@
     <nc r="J34" t="inlineStr">
       <is>
         <t>파일위치 확인</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
     <odxf>
@@ -2572,7 +2560,6 @@
     <nc r="J35" t="inlineStr">
       <is>
         <t>파일위치 확인</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
     <odxf>
@@ -2621,7 +2608,6 @@
     <nc r="J36" t="inlineStr">
       <is>
         <t>/report/PrgListReport.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2634,7 +2620,6 @@
     <nc r="J37" t="inlineStr">
       <is>
         <t>/report/ConfigReqReport.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2647,7 +2632,6 @@
     <nc r="J38" t="inlineStr">
       <is>
         <t>/administrator/SysInfo.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2660,7 +2644,6 @@
     <nc r="J44" t="inlineStr">
       <is>
         <t>/modal/PopSysInfo.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2678,7 +2661,6 @@
     <nc r="C32" t="inlineStr">
       <is>
         <t>실행모듈정보</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2686,7 +2668,6 @@
     <nc r="J61" t="inlineStr">
       <is>
         <t>/administrator/RgtManage.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2699,10 +2680,91 @@
     <nc r="J60" t="inlineStr">
       <is>
         <t>/administrator/menu.html</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="1">
+    <oc r="J26" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (/winpop/RequestDetail.jsp)</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
+  <rcc rId="55" sId="1">
+    <oc r="J33" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (/tab/BuildReleaseTab1.jsp)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1">
+    <oc r="J34" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (/tab/BuildReleaseTab2.jsp)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1">
+    <oc r="J29" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (파일없음)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <oc r="J35" t="inlineStr">
+      <is>
+        <t>파일위치 확인</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (파일없음)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+  </rdn>
+  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="add"/>
 </revisions>
 </file>
 
@@ -2712,7 +2774,6 @@
     <nc r="J1" t="inlineStr">
       <is>
         <t>html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2771,7 +2832,6 @@
     <nc r="J6" t="inlineStr">
       <is>
         <t>o</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -2820,7 +2880,6 @@
     <oc r="J6" t="inlineStr">
       <is>
         <t>o</t>
-        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
     <nc r="J6">
@@ -2876,11 +2935,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
-  <userInfo guid="{2D78AF63-E729-44B7-AF18-523E0A775831}" name="hyjung" id="-545717959" dateTime="2019-06-07T12:57:35"/>
-  <userInfo guid="{2156CD64-5816-454C-91D9-8314110D8388}" name="Windows 사용자" id="-510581129" dateTime="2019-06-19T14:02:17"/>
-  <userInfo guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" name="lg-pc" id="-989692281" dateTime="2019-07-04T12:37:12"/>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
 </users>
 </file>
 
@@ -3150,8 +3207,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3916,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -3996,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="54" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.3">
@@ -4057,7 +4114,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>69</v>
@@ -4074,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4102,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="54" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4130,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="54" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4158,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="54" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4186,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4214,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
@@ -4244,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4401,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4812,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -4840,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -5002,16 +5059,28 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A2">
+      <selection activeCell="L38" sqref="L38"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <autoFilter ref="A1:I67">
+        <filterColumn colId="8">
+          <filters>
+            <filter val="1"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
       <selection activeCell="M4" sqref="K4:M4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A1:I67"/>
     </customSheetView>
     <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A10">
       <selection activeCell="J35" sqref="J35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
       <autoFilter ref="A1:I67">
         <filterColumn colId="8">
           <filters>
@@ -5031,7 +5100,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9002,16 +9071,22 @@
   </sheetData>
   <autoFilter ref="A2:D70"/>
   <customSheetViews>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
+      <selection activeCell="O27" sqref="O27"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
+      <autoFilter ref="A2:D70"/>
+    </customSheetView>
     <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
       <selection activeCell="D2" sqref="D2:D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
     <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId3"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
   </customSheetViews>
@@ -9042,6 +9117,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
-    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="938" activeSheetId="1"/>
+    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1364" windowHeight="748" activeSheetId="1"/>
     <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
     <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
   </customWorkbookViews>
@@ -1891,7 +1891,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B9A25F85-8FFA-46B1-87CD-703157626A89}" diskRevisions="1" revisionId="60" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" diskRevisions="1" revisionId="62" version="3">
   <header guid="{2D78AF63-E729-44B7-AF18-523E0A775831}" dateTime="2019-06-07T12:57:35" maxSheetId="3" userName="hyjung" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -2103,6 +2103,12 @@
     </sheetIdMap>
   </header>
   <header guid="{B9A25F85-8FFA-46B1-87CD-703157626A89}" dateTime="2019-07-04T16:36:18" maxSheetId="3" userName="Windows 사용자" r:id="rId36" minRId="54" maxRId="58">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" dateTime="2019-07-04T16:38:29" maxSheetId="3" userName="Windows 사용자" r:id="rId37">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2768,6 +2774,21 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="6" sId="1">
@@ -2937,7 +2958,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{2EDDA042-E3EB-4D5C-9C1A-8D8E9F990D16}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
+  <userInfo guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
 </users>
 </file>
 
@@ -3207,8 +3228,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5059,8 +5080,8 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A2">
-      <selection activeCell="L38" sqref="L38"/>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="D1">
+      <selection activeCell="O33" sqref="O33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
       <autoFilter ref="A1:I67">

--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -22,16 +22,15 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
     <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1364" windowHeight="748" activeSheetId="1"/>
     <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
-    <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="379">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1427,19 +1426,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파일위치 확인 (/tab/BuildReleaseTab1.jsp)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일위치 확인 (/tab/BuildReleaseTab2.jsp)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일위치 확인 (파일없음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일위치 확인 (파일없음)</t>
+    <t>administrator/ApprovalInfo.html</t>
+  </si>
+  <si>
+    <t>/administrator/UserInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/BuildReleaseInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/BuildReleaseInfo_tab2.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/BuildReleaseInfo_tab3.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program/ProgrmInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal/sysdetail/SysDetailUsr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal/sysdetail/SysDetailPrg.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/sysdetail/SysDetailSvr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성 요소 알려주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록 버튼비활성화됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winpop/DevRepProgRegister.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬영역연결등록 비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음 나옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/PopPredecessor.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 다시 알려주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/PopTaskinfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/PopCommDrtr.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1450,7 +1512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,8 +1579,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,6 +1642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,7 +1764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,6 +1930,15 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,6 +1969,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1891,13 +1999,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" diskRevisions="1" revisionId="62" version="3">
-  <header guid="{2D78AF63-E729-44B7-AF18-523E0A775831}" dateTime="2019-06-07T12:57:35" maxSheetId="3" userName="hyjung" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7C0E3235-237E-4A0A-8F6F-626F3C4D9163}" diskRevisions="1" revisionId="101" version="38">
   <header guid="{2156CD64-5816-454C-91D9-8314110D8388}" dateTime="2019-06-10T09:06:46" maxSheetId="3" userName="hyjung" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -2114,11 +2216,243 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{9593F12C-CCA8-4C8D-95DD-F5249CB91060}" dateTime="2019-07-08T13:40:42" maxSheetId="3" userName="lg-pc" r:id="rId38" minRId="63">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{23B02163-01D6-4845-8DA8-DC64AB500149}" dateTime="2019-07-08T15:20:57" maxSheetId="3" userName="lg-pc" r:id="rId39" minRId="66">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{26FBA65B-F579-4F3F-8F8B-5A90DAB068D5}" dateTime="2019-07-08T15:23:18" maxSheetId="3" userName="lg-pc" r:id="rId40" minRId="67">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{819DFD0E-40C3-42DC-9EFE-66599846DB0D}" dateTime="2019-07-08T15:50:53" maxSheetId="3" userName="lg-pc" r:id="rId41" minRId="68">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BAC60114-7F9F-46C5-915B-BEAB3B576CC2}" dateTime="2019-07-08T15:50:58" maxSheetId="3" userName="lg-pc" r:id="rId42">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0A83931A-C157-4244-89E3-5DE808FA87F2}" dateTime="2019-07-08T15:52:52" maxSheetId="3" userName="lg-pc" r:id="rId43" minRId="69" maxRId="70">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2E9CB635-6995-42DA-BFCA-DEB3CA265857}" dateTime="2019-07-08T16:00:14" maxSheetId="3" userName="lg-pc" r:id="rId44" minRId="71" maxRId="72">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD41170E-40C1-416B-9527-35F1A8098B6A}" dateTime="2019-07-08T16:00:28" maxSheetId="3" userName="lg-pc" r:id="rId45" minRId="73">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B065A3CB-40F0-46D6-86A8-662AEA48DA67}" dateTime="2019-07-08T17:18:22" maxSheetId="3" userName="lg-pc" r:id="rId46" minRId="74" maxRId="75">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A254C1B5-38F0-4E03-823B-DBB0A3C794D3}" dateTime="2019-07-08T17:18:35" maxSheetId="3" userName="lg-pc" r:id="rId47">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB2175D0-9DA4-4331-B8B7-E6742B1762CA}" dateTime="2019-07-09T14:19:58" maxSheetId="3" userName="lg-pc" r:id="rId48" minRId="78">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D149F310-2841-4CB1-8081-8D0071E93F71}" dateTime="2019-07-09T14:55:32" maxSheetId="3" userName="lg-pc" r:id="rId49" minRId="79" maxRId="80">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1D4F1975-DDDF-4B10-9A0C-661F3D58F7AA}" dateTime="2019-07-09T15:04:12" maxSheetId="3" userName="lg-pc" r:id="rId50" minRId="81">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A29DA9CE-A779-4C0B-9795-BD1EB53473BB}" dateTime="2019-07-09T15:04:16" maxSheetId="3" userName="lg-pc" r:id="rId51">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BC2C2F94-FE85-4474-A71C-FF3F1F80BDF5}" dateTime="2019-07-09T15:08:29" maxSheetId="3" userName="lg-pc" r:id="rId52">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{10ED6947-291D-4119-8ADD-075B3E0DA919}" dateTime="2019-07-09T15:08:57" maxSheetId="3" userName="lg-pc" r:id="rId53" minRId="84">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA18905B-0B6B-4189-A9C9-7E57B8B9ED94}" dateTime="2019-07-09T15:09:04" maxSheetId="3" userName="lg-pc" r:id="rId54">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A5EB9287-5D4B-4750-B234-2803BA58298B}" dateTime="2019-07-09T15:10:27" maxSheetId="3" userName="lg-pc" r:id="rId55" minRId="85">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5BFDBCE5-9A87-49CD-81B2-03E5A8BA2E23}" dateTime="2019-07-09T15:14:35" maxSheetId="3" userName="lg-pc" r:id="rId56" minRId="86">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2AF04E98-AD8A-4495-A41C-9CB52DD7A8B1}" dateTime="2019-07-09T16:24:24" maxSheetId="3" userName="lg-pc" r:id="rId57" minRId="87">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFD241E6-1A27-4936-9F7C-79D7111FB8CB}" dateTime="2019-07-09T16:24:26" maxSheetId="3" userName="lg-pc" r:id="rId58">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{41859D50-3A11-4A59-AC51-382AF63E863B}" dateTime="2019-07-09T16:25:28" maxSheetId="3" userName="lg-pc" r:id="rId59" minRId="88">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{94FF8B5D-10DA-4386-9AA1-EA21EC6BCF6E}" dateTime="2019-07-09T16:25:31" maxSheetId="3" userName="lg-pc" r:id="rId60">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6925B8CE-B210-4219-A37D-A97D6A4020BF}" dateTime="2019-07-09T16:33:45" maxSheetId="3" userName="lg-pc" r:id="rId61" minRId="89">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{19DEA372-0C3F-42D1-A048-5DAA4F9BA9D1}" dateTime="2019-07-09T16:33:48" maxSheetId="3" userName="lg-pc" r:id="rId62">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{98C151BC-EB47-4DE1-9E33-CCE1683123A1}" dateTime="2019-07-09T16:53:52" maxSheetId="3" userName="lg-pc" r:id="rId63" minRId="90">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{83102021-E32A-4A4B-AFCB-2542A24305B6}" dateTime="2019-07-09T16:53:58" maxSheetId="3" userName="lg-pc" r:id="rId64">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C94FC96C-F212-49EC-AE56-C90AC7FE4FD6}" dateTime="2019-07-09T16:54:52" maxSheetId="3" userName="lg-pc" r:id="rId65" minRId="91">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7892235C-E1EA-4187-9CF3-FA852133404B}" dateTime="2019-07-09T16:55:43" maxSheetId="3" userName="lg-pc" r:id="rId66" minRId="92">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{280B2894-F7A8-4EA0-819A-8E5ECD05D262}" dateTime="2019-07-09T16:55:47" maxSheetId="3" userName="lg-pc" r:id="rId67">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{57D79A35-B454-4BDB-A9B6-AD1765108E23}" dateTime="2019-07-09T16:56:05" maxSheetId="3" userName="lg-pc" r:id="rId68">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DDBFA738-5427-49B0-A339-3AF7EDDFAA69}" dateTime="2019-07-09T16:56:15" maxSheetId="3" userName="lg-pc" r:id="rId69" minRId="93" maxRId="94">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{20AC8E75-6452-4288-AF99-DFBA9AED8EB9}" dateTime="2019-07-09T16:57:37" maxSheetId="3" userName="lg-pc" r:id="rId70" minRId="97" maxRId="98">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FC483772-4F37-4238-8EEF-1DD5BAA274BF}" dateTime="2019-07-09T17:05:32" maxSheetId="3" userName="lg-pc" r:id="rId71" minRId="99" maxRId="100">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7C0E3235-237E-4A0A-8F6F-626F3C4D9163}" dateTime="2019-07-09T17:23:52" maxSheetId="3" userName="lg-pc" r:id="rId72" minRId="101">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="63" sId="1" xfDxf="1" dxf="1">
+    <nc r="J48" t="inlineStr">
+      <is>
+        <t>administrator/ApprovalInfo.html</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font/>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2789,6 +3123,52 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="66" sId="1">
+    <nc r="J52" t="inlineStr">
+      <is>
+        <t>/administrator/UserInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J52" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="67" sId="1">
+    <oc r="J29" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (파일없음)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>program/ProgrmInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J29" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="6" sId="1">
@@ -2847,6 +3227,215 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="68" sId="1">
+    <oc r="J33" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (/tab/BuildReleaseTab1.jsp)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J33:J35" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="69" sId="1">
+    <oc r="J34" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (/tab/BuildReleaseTab2.jsp)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J34"/>
+  </rcc>
+  <rcc rId="70" sId="1">
+    <oc r="J35" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (파일없음)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J35"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="71" sId="1">
+    <oc r="J33" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="1">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo_tab2.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="73" sId="1">
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo_tab3.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="74" sId="1">
+    <oc r="J33" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>administrator/BuildReleaseInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="1">
+    <oc r="J29" t="inlineStr">
+      <is>
+        <t>program/ProgrmInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>program/ProgrmInfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="78" sId="1">
+    <nc r="J41" t="inlineStr">
+      <is>
+        <t>sysdetail/SysDetailPrg.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J41" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="79" sId="1">
+    <nc r="J42" t="inlineStr">
+      <is>
+        <t>modal/sysdetail/SysDetailUsr.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="1">
+    <oc r="J41" t="inlineStr">
+      <is>
+        <t>sysdetail/SysDetailPrg.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J41" t="inlineStr">
+      <is>
+        <t>modal/sysdetail/SysDetailPrg.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J42" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="81" sId="1">
+    <nc r="J43" t="inlineStr">
+      <is>
+        <t>/modal/sysdetail/SysDetailSvr.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="9" sId="1">
@@ -2895,6 +3484,272 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J43" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="84" sId="1">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>구성 요소 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="85" sId="1">
+    <nc r="J7" t="inlineStr">
+      <is>
+        <t>공지사항 등록 버튼비활성화됨</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="86" sId="1">
+    <nc r="J13" t="inlineStr">
+      <is>
+        <t>winpop/DevRepProgRegister.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J13" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="87" sId="1">
+    <nc r="J14" t="inlineStr">
+      <is>
+        <t>로컬영역연결등록 비활성화</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="88" sId="1">
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>정보없음 나옴</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="10" sId="1">
@@ -2907,6 +3762,375 @@
       <v>0</v>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="89" sId="1">
+    <nc r="J23" t="inlineStr">
+      <is>
+        <t>/modal/PopPredecessor.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J23" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="90" sId="1">
+    <nc r="J24" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A24:J24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="91" sId="1" odxf="1" dxf="1">
+    <nc r="J27" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="92" sId="1">
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>버튼비활성화</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A28:J28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A28:J28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A28:I28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="93" sheetId="1" source="J28" destination="J30" sourceSheetId="1"/>
+  <rcc rId="94" sId="1" odxf="1" dxf="1">
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="97" sId="1" odxf="1" dxf="1">
+    <nc r="J31" t="inlineStr">
+      <is>
+        <t>버튼비활성화</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="98" sId="1">
+    <nc r="J39" t="inlineStr">
+      <is>
+        <t>버튼 없음</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J39">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J39">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -2923,6 +4147,116 @@
       <v>0</v>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J40" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="99" sId="1">
+    <nc r="J40" t="inlineStr">
+      <is>
+        <t>/modal/PopTaskinfo.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="1" odxf="1" dxf="1">
+    <nc r="J45" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="101" sId="1">
+    <nc r="J46" t="inlineStr">
+      <is>
+        <t>/modal/PopCommDrtr.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -3228,8 +4562,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3288,7 +4622,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
@@ -3327,7 +4661,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
@@ -3353,6 +4687,9 @@
       <c r="I3" s="15">
         <v>2</v>
       </c>
+      <c r="J3" s="68" t="s">
+        <v>368</v>
+      </c>
       <c r="K3" s="9" t="s">
         <v>231</v>
       </c>
@@ -3363,7 +4700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
@@ -3401,7 +4738,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
@@ -3440,7 +4777,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>108</v>
       </c>
@@ -3472,7 +4809,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>114</v>
       </c>
@@ -3496,8 +4833,11 @@
       <c r="I7" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J7" s="69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
@@ -3548,7 +4888,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3574,7 +4914,7 @@
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>40</v>
       </c>
@@ -3602,7 +4942,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>45</v>
       </c>
@@ -3632,7 +4972,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>121</v>
       </c>
@@ -3656,8 +4996,11 @@
       <c r="I13" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>121</v>
       </c>
@@ -3681,8 +5024,11 @@
       <c r="I14" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="69" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>40</v>
       </c>
@@ -3712,7 +5058,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>124</v>
       </c>
@@ -3734,8 +5080,11 @@
       <c r="I16" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="69" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>124</v>
       </c>
@@ -3758,7 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>124</v>
       </c>
@@ -3781,7 +5130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>124</v>
       </c>
@@ -3804,7 +5153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>124</v>
       </c>
@@ -3827,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
@@ -3855,7 +5204,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>31</v>
       </c>
@@ -3885,7 +5234,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3909,8 +5258,11 @@
       <c r="I23" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="70" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>108</v>
       </c>
@@ -3936,8 +5288,11 @@
       <c r="I24" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>40</v>
       </c>
@@ -3967,7 +5322,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>135</v>
       </c>
@@ -3997,7 +5352,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>138</v>
       </c>
@@ -4019,8 +5374,11 @@
       <c r="I27" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>142</v>
       </c>
@@ -4046,8 +5404,11 @@
       <c r="I28" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J28" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>64</v>
       </c>
@@ -4073,11 +5434,11 @@
       <c r="I29" s="42">
         <v>1</v>
       </c>
-      <c r="J29" s="54" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>149</v>
       </c>
@@ -4101,8 +5462,11 @@
       <c r="I30" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>149</v>
       </c>
@@ -4126,8 +5490,11 @@
       <c r="I31" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>35</v>
       </c>
@@ -4155,7 +5522,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>64</v>
       </c>
@@ -4179,11 +5546,11 @@
       <c r="I33" s="42">
         <v>1</v>
       </c>
-      <c r="J33" s="54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>64</v>
       </c>
@@ -4207,11 +5574,11 @@
       <c r="I34" s="42">
         <v>1</v>
       </c>
-      <c r="J34" s="54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>64</v>
       </c>
@@ -4235,11 +5602,11 @@
       <c r="I35" s="42">
         <v>1</v>
       </c>
-      <c r="J35" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
@@ -4267,7 +5634,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
         <v>31</v>
       </c>
@@ -4295,7 +5662,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
         <v>31</v>
       </c>
@@ -4325,7 +5692,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>93</v>
       </c>
@@ -4349,8 +5716,11 @@
       <c r="I39" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>93</v>
       </c>
@@ -4374,8 +5744,11 @@
       <c r="I40" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>93</v>
       </c>
@@ -4399,8 +5772,11 @@
       <c r="I41" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>93</v>
       </c>
@@ -4424,8 +5800,11 @@
       <c r="I42" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>93</v>
       </c>
@@ -4449,8 +5828,11 @@
       <c r="I43" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J43" s="55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>161</v>
       </c>
@@ -4482,7 +5864,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>161</v>
       </c>
@@ -4508,8 +5890,11 @@
       <c r="I45" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>93</v>
       </c>
@@ -4533,8 +5918,11 @@
       <c r="I46" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="72" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>93</v>
       </c>
@@ -4561,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
         <v>31</v>
       </c>
@@ -4587,8 +5975,11 @@
       <c r="I48" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="56" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>138</v>
       </c>
@@ -4613,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>161</v>
       </c>
@@ -4638,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>138</v>
       </c>
@@ -4663,7 +6054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
         <v>35</v>
       </c>
@@ -4689,8 +6080,11 @@
       <c r="I52" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>161</v>
       </c>
@@ -4715,7 +6109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>161</v>
       </c>
@@ -4738,7 +6132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>200</v>
       </c>
@@ -4763,7 +6157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>93</v>
       </c>
@@ -4790,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>198</v>
       </c>
@@ -4815,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>196</v>
       </c>
@@ -4840,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>196</v>
       </c>
@@ -4865,7 +6259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
         <v>35</v>
       </c>
@@ -4893,7 +6287,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
         <v>31</v>
       </c>
@@ -4921,7 +6315,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -4946,7 +6340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -4971,7 +6365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -4996,7 +6390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -5021,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -5046,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -5075,15 +6469,29 @@
   <autoFilter ref="A1:I67">
     <filterColumn colId="8">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A3">
+      <selection activeCell="J28" sqref="J28"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <autoFilter ref="A1:I67">
+        <filterColumn colId="8">
+          <filters>
+            <filter val="2"/>
+            <filter val="3"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="D1">
       <selection activeCell="O33" sqref="O33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A1:I67">
         <filterColumn colId="8">
           <filters>
@@ -5095,20 +6503,8 @@
     <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
       <selection activeCell="M4" sqref="K4:M4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
       <autoFilter ref="A1:I67"/>
-    </customSheetView>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A10">
-      <selection activeCell="J35" sqref="J35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
-      <autoFilter ref="A1:I67">
-        <filterColumn colId="8">
-          <filters>
-            <filter val="1"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5144,203 +6540,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59" t="s">
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59" t="s">
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="56" t="s">
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="61"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="56" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="56" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="56" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="56" t="s">
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="56" t="s">
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="59" t="s">
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="26">
         <v>4</v>
       </c>
@@ -9092,20 +10488,20 @@
   </sheetData>
   <autoFilter ref="A2:D70"/>
   <customSheetViews>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
-    <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
+      <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
-      <selection activeCell="O27" sqref="O27"/>
+    <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
+      <selection activeCell="D2" sqref="D2:D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId3"/>
       <autoFilter ref="A2:D70"/>

--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -22,15 +22,15 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="938" activeSheetId="1"/>
     <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
-    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1364" windowHeight="748" activeSheetId="1"/>
     <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="383">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -373,14 +373,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Confirm_select</t>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eCmm0105.mxml</t>
   </si>
   <si>
     <t>eCmm0200_Copy.mxml</t>
@@ -537,10 +531,6 @@
   </si>
   <si>
     <t>팝업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileListCom.mxml</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1485,23 +1475,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 다시 알려주세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>버튼비활성화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버튼 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/modal/PopTaskinfo.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/modal/PopCommDrtr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 &gt; SR 완료와 같은텝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 없음 ( 버튼명 : 정기배포설정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eCmm0105.mxml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 다시 알려주세요 (관리자 &gt; 시스템정보 &gt; 프로그램종류정보(버튼) &gt; 프로그램처리속성트리구조작성(버튼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메뉴 다시 알려주세요 결재확인 &gt; 신청현황 &gt; 그리드 더블클릭 or 선택 후 우클릭 변경신청 상세 &gt; 선후행작업확인 버튼 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm_select</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileListCom.mxml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1596,7 +1614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,6 +1666,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +1788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1939,6 +1963,27 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,21 +2014,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1999,13 +2029,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7C0E3235-237E-4A0A-8F6F-626F3C4D9163}" diskRevisions="1" revisionId="101" version="38">
-  <header guid="{2156CD64-5816-454C-91D9-8314110D8388}" dateTime="2019-06-10T09:06:46" maxSheetId="3" userName="hyjung" r:id="rId2" minRId="1" maxRId="3">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{95BA9786-7970-42CE-8B1A-D7A2E27DB93E}" diskRevisions="1" revisionId="112" version="41">
   <header guid="{0B29B57D-4461-46FF-886F-F72749850AEF}" dateTime="2019-06-19T16:13:19" maxSheetId="3" userName="lg-pc" r:id="rId3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -2426,6 +2450,24 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{76E2C4DE-E1B1-4301-8C3F-3804F565D5B1}" dateTime="2019-07-10T09:30:52" maxSheetId="3" userName="Windows 사용자" r:id="rId73" minRId="102" maxRId="105">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B3E8F2A0-2266-4BE6-A93F-73F4B27FDB79}" dateTime="2019-07-10T09:39:21" maxSheetId="3" userName="Windows 사용자" r:id="rId74" minRId="106" maxRId="110">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{95BA9786-7970-42CE-8B1A-D7A2E27DB93E}" dateTime="2019-07-10T09:44:56" maxSheetId="3" userName="Windows 사용자" r:id="rId75">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -2669,42 +2711,34 @@
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="2">
-    <oc r="D28" t="inlineStr">
-      <is>
-        <t>정호윤</t>
-      </is>
-    </oc>
-    <nc r="D28" t="inlineStr">
-      <is>
-        <t>최인숙</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="2">
-    <oc r="D29" t="inlineStr">
-      <is>
-        <t>정호윤</t>
-      </is>
-    </oc>
-    <nc r="D29" t="inlineStr">
-      <is>
-        <t>최인숙</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="2">
-    <oc r="D30" t="inlineStr">
-      <is>
-        <t>정호윤</t>
-      </is>
-    </oc>
-    <nc r="D30" t="inlineStr">
-      <is>
-        <t>최인숙</t>
-      </is>
-    </nc>
-  </rcc>
+  <rfmt sheetId="1" sqref="J27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="add"/>
 </revisions>
 </file>
 
@@ -4260,6 +4294,153 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="102" sId="1">
+    <nc r="J20" t="inlineStr">
+      <is>
+        <t>적용 &gt; SR 완료와 같은텝</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1">
+    <oc r="J39" t="inlineStr">
+      <is>
+        <t>버튼 없음</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J39" t="inlineStr">
+      <is>
+        <t>버튼 없음 ( 버튼명 : 정기배포설정)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <oc r="D45" t="inlineStr">
+      <is>
+        <t>eCmm0105.mxml</t>
+      </is>
+    </oc>
+    <nc r="D45" t="inlineStr">
+      <is>
+        <t>eCmm0105.mxml</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="105" sId="1">
+    <oc r="J45" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J45" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요 (관리자 &gt; 시스템정보 &gt; 프로그램종류정보(버튼) &gt; 프로그램처리속성트리구조작성(버튼)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="106" sId="1">
+    <oc r="J28" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t xml:space="preserve">메뉴 다시 알려주세요 결재확인 &gt; 신청현황 &gt; 그리드 더블클릭 or 선택 후 우클릭 변경신청 상세 &gt; 선후행작업확인 버튼 </t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="1">
+    <oc r="D24" t="inlineStr">
+      <is>
+        <t>Confirm_select</t>
+      </is>
+    </oc>
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>Confirm_select</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcmt sheetId="1" cell="J24" guid="{00000000-0000-0000-0000-000000000000}" action="delete" author="Windows 사용자"/>
+  <rcc rId="108" sId="1">
+    <oc r="D27" t="inlineStr">
+      <is>
+        <t>fileListCom.mxml</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>fileListCom.mxml</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="1">
+    <oc r="J24" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J24" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="1">
+    <oc r="J27" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J27" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rfmt sheetId="1" sqref="J1:J2 J4:J6 J8 J10:J12 J15 J21:J22 J25:J26 J29 J32:J38 J41:J44 J48 J52 J60:J61 J68:J1048576">
@@ -4291,8 +4472,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
+  <userInfo guid="{95BA9786-7970-42CE-8B1A-D7A2E27DB93E}" name="Windows 사용자" id="-510526258" dateTime="2019-07-10T09:41:07"/>
 </users>
 </file>
 
@@ -4559,11 +4741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4577,7 +4758,7 @@
     <col min="7" max="7" width="7" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.75" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="92.125" style="51" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -4595,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>4</v>
@@ -4610,19 +4791,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
@@ -4649,16 +4830,16 @@
         <v>1</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L2" s="42">
         <v>27</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4687,20 +4868,20 @@
       <c r="I3" s="15">
         <v>2</v>
       </c>
-      <c r="J3" s="68" t="s">
-        <v>368</v>
+      <c r="J3" s="58" t="s">
+        <v>365</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L3" s="9">
         <v>3</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +4889,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>20</v>
@@ -4735,10 +4916,10 @@
         <v>10</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="33" hidden="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
@@ -4746,7 +4927,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>28</v>
@@ -4765,79 +4946,79 @@
         <v>1</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L5" s="42">
         <v>26</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="E6" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>110</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>85</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="69" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="61" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
@@ -4845,7 +5026,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>33</v>
@@ -4864,18 +5045,18 @@
         <v>1</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -4888,7 +5069,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -4914,7 +5095,7 @@
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>40</v>
       </c>
@@ -4922,7 +5103,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>43</v>
@@ -4939,10 +5120,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="33" hidden="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>45</v>
       </c>
@@ -4969,66 +5150,66 @@
         <v>1</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="17">
         <v>2</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="17">
         <v>3</v>
       </c>
-      <c r="J14" s="69" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>40</v>
       </c>
@@ -5042,7 +5223,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>52</v>
@@ -5055,18 +5236,18 @@
         <v>1</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
@@ -5080,19 +5261,19 @@
       <c r="I16" s="17">
         <v>2</v>
       </c>
-      <c r="J16" s="69" t="s">
-        <v>372</v>
+      <c r="J16" s="61" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
@@ -5100,7 +5281,7 @@
         <v>52</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17">
@@ -5109,13 +5290,13 @@
     </row>
     <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
@@ -5123,7 +5304,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="17">
@@ -5132,13 +5313,13 @@
     </row>
     <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
@@ -5146,7 +5327,7 @@
         <v>52</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="17">
@@ -5155,13 +5336,13 @@
     </row>
     <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
@@ -5169,14 +5350,17 @@
         <v>52</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
@@ -5201,10 +5385,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>31</v>
       </c>
@@ -5218,7 +5402,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>56</v>
@@ -5231,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5239,60 +5423,60 @@
         <v>93</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="10">
         <v>3</v>
       </c>
-      <c r="J23" s="70" t="s">
-        <v>373</v>
+      <c r="J23" s="59" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I24" s="10">
         <v>2</v>
       </c>
-      <c r="J24" s="68" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="63" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>40</v>
       </c>
@@ -5306,7 +5490,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>56</v>
@@ -5319,24 +5503,24 @@
         <v>1</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>137</v>
-      </c>
       <c r="E26" s="49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>22</v>
@@ -5349,66 +5533,66 @@
         <v>1</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="10">
         <v>2</v>
       </c>
-      <c r="J27" s="68" t="s">
-        <v>374</v>
+      <c r="J27" s="63" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I28" s="10">
         <v>3</v>
       </c>
-      <c r="J28" s="68" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="63" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>64</v>
       </c>
@@ -5422,7 +5606,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>56</v>
@@ -5435,66 +5619,66 @@
         <v>1</v>
       </c>
       <c r="J29" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>3</v>
       </c>
-      <c r="J30" s="68" t="s">
-        <v>375</v>
+      <c r="J30" s="63" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="17">
         <v>3</v>
       </c>
-      <c r="J31" s="68" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>35</v>
       </c>
@@ -5502,7 +5686,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>69</v>
@@ -5519,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>64</v>
       </c>
@@ -5530,7 +5714,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>91</v>
@@ -5547,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="57" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>64</v>
       </c>
@@ -5558,7 +5742,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>91</v>
@@ -5575,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="57" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>64</v>
       </c>
@@ -5586,7 +5770,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>91</v>
@@ -5603,10 +5787,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="57" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
@@ -5631,10 +5815,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
         <v>31</v>
       </c>
@@ -5659,10 +5843,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
         <v>31</v>
       </c>
@@ -5676,7 +5860,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>22</v>
@@ -5689,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5697,27 +5881,27 @@
         <v>93</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="10">
         <v>3</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>376</v>
+      <c r="J39" s="64" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5725,41 +5909,41 @@
         <v>93</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="10">
         <v>3</v>
       </c>
-      <c r="J40" s="70" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="45" t="s">
@@ -5773,21 +5957,21 @@
         <v>1</v>
       </c>
       <c r="J41" s="55" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="50"/>
       <c r="F42" s="45" t="s">
@@ -5801,21 +5985,21 @@
         <v>1</v>
       </c>
       <c r="J42" s="55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="45" t="s">
@@ -5829,69 +6013,69 @@
         <v>1</v>
       </c>
       <c r="J43" s="55" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I44" s="45">
         <v>1</v>
       </c>
       <c r="J44" s="51" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I45" s="10">
         <v>2</v>
       </c>
-      <c r="J45" s="68" t="s">
-        <v>374</v>
+      <c r="J45" s="63" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5899,27 +6083,27 @@
         <v>93</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="10">
         <v>3</v>
       </c>
-      <c r="J46" s="72" t="s">
-        <v>378</v>
+      <c r="J46" s="60" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5927,29 +6111,29 @@
         <v>93</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I47" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
         <v>31</v>
       </c>
@@ -5976,28 +6160,28 @@
         <v>1</v>
       </c>
       <c r="J48" s="56" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="10">
@@ -6006,23 +6190,23 @@
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="10">
@@ -6031,30 +6215,30 @@
     </row>
     <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
         <v>35</v>
       </c>
@@ -6068,7 +6252,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>56</v>
@@ -6081,21 +6265,21 @@
         <v>1</v>
       </c>
       <c r="J52" s="55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="10" t="s">
@@ -6111,13 +6295,13 @@
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -6134,23 +6318,23 @@
     </row>
     <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="10">
@@ -6162,23 +6346,23 @@
         <v>93</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I56" s="10">
         <v>2</v>
@@ -6186,16 +6370,16 @@
     </row>
     <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="10" t="s">
@@ -6211,16 +6395,16 @@
     </row>
     <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="10" t="s">
@@ -6236,30 +6420,30 @@
     </row>
     <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
         <v>35</v>
       </c>
@@ -6284,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="J60" s="51" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
         <v>31</v>
       </c>
@@ -6312,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -6323,7 +6507,7 @@
         <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>90</v>
@@ -6348,7 +6532,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>90</v>
@@ -6373,7 +6557,7 @@
         <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>90</v>
@@ -6398,7 +6582,7 @@
         <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
@@ -6423,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>90</v>
@@ -6448,7 +6632,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>90</v>
@@ -6466,36 +6650,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I67">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I67"/>
   <customSheetViews>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1" topLeftCell="B1">
+      <selection activeCell="J26" sqref="J26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <autoFilter ref="A1:I67"/>
+    </customSheetView>
     <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A3">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A1:I67">
         <filterColumn colId="8">
           <filters>
             <filter val="2"/>
             <filter val="3"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="D1">
-      <selection activeCell="O33" sqref="O33"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-      <autoFilter ref="A1:I67">
-        <filterColumn colId="8">
-          <filters>
-            <filter val="1"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -6540,203 +6711,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
+      <c r="A1" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="62" t="s">
+      <c r="A2" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62" t="s">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62" t="s">
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="61"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="68"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="59" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="59" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="59" t="s">
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="59" t="s">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="59" t="s">
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="59" t="s">
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="64"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="26">
         <v>4</v>
       </c>
@@ -6872,11 +7043,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -6927,11 +7098,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -6982,11 +7153,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -7037,11 +7208,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="31"/>
@@ -7096,7 +7267,7 @@
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="31"/>
@@ -7151,7 +7322,7 @@
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="20"/>
@@ -7202,11 +7373,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="20"/>
@@ -7257,11 +7428,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -7312,11 +7483,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7367,11 +7538,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7422,11 +7593,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -7477,11 +7648,11 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -7536,7 +7707,7 @@
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -7591,7 +7762,7 @@
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -7646,7 +7817,7 @@
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -7697,11 +7868,11 @@
         <v>16</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -7752,11 +7923,11 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -7807,11 +7978,11 @@
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -7862,11 +8033,11 @@
         <v>19</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -7917,11 +8088,11 @@
         <v>20</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -7976,7 +8147,7 @@
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -8027,11 +8198,11 @@
         <v>22</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -8082,11 +8253,11 @@
         <v>23</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -8137,11 +8308,11 @@
         <v>24</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8192,11 +8363,11 @@
         <v>25</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -8247,11 +8418,11 @@
         <v>26</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -8302,11 +8473,11 @@
         <v>27</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -8357,11 +8528,11 @@
         <v>28</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -8416,7 +8587,7 @@
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -8471,7 +8642,7 @@
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -8526,7 +8697,7 @@
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -8577,11 +8748,11 @@
         <v>32</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -8632,11 +8803,11 @@
         <v>33</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -8687,11 +8858,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -8742,11 +8913,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -8797,11 +8968,11 @@
         <v>36</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -8852,11 +9023,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -8911,7 +9082,7 @@
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -8962,11 +9133,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -9017,11 +9188,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -9072,11 +9243,11 @@
         <v>41</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -9127,11 +9298,11 @@
         <v>42</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -9182,11 +9353,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -9241,7 +9412,7 @@
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -9292,11 +9463,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -9347,11 +9518,11 @@
         <v>46</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -9402,11 +9573,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -9457,11 +9628,11 @@
         <v>48</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -9512,11 +9683,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -9567,11 +9738,11 @@
         <v>50</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -9626,7 +9797,7 @@
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -9681,7 +9852,7 @@
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -9732,11 +9903,11 @@
         <v>53</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -9787,11 +9958,11 @@
         <v>54</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -9842,11 +10013,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -9897,11 +10068,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -9956,7 +10127,7 @@
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -10007,11 +10178,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -10062,11 +10233,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -10117,11 +10288,11 @@
         <v>60</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -10172,7 +10343,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="28"/>
@@ -10278,7 +10449,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="28"/>
@@ -10331,7 +10502,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="29"/>
@@ -10384,7 +10555,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="29"/>
@@ -10437,7 +10608,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="29"/>
@@ -10488,13 +10659,13 @@
   </sheetData>
   <autoFilter ref="A2:D70"/>
   <customSheetViews>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>

--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -4472,9 +4472,8 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
-  <userInfo guid="{95BA9786-7970-42CE-8B1A-D7A2E27DB93E}" name="Windows 사용자" id="-510526258" dateTime="2019-07-10T09:41:07"/>
 </users>
 </file>
 

--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -22,15 +22,15 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
-    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="938" activeSheetId="1"/>
     <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
+    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1364" windowHeight="748" activeSheetId="1"/>
     <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="393">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -373,8 +373,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Confirm_select</t>
+  </si>
+  <si>
     <t>관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eCmm0105.mxml</t>
   </si>
   <si>
     <t>eCmm0200_Copy.mxml</t>
@@ -531,6 +537,10 @@
   </si>
   <si>
     <t>팝업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileListCom.mxml</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -934,10 +944,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신청현황 &gt; 신청상세화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>신청현황 &gt;신청상세화면 &gt; 테스트문서(산출물)확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1412,62 +1418,90 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>administrator/ApprovalInfo.html</t>
+  </si>
+  <si>
+    <t>/administrator/UserInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/BuildReleaseInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/BuildReleaseInfo_tab2.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator/BuildReleaseInfo_tab3.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program/ProgrmInfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal/sysdetail/SysDetailUsr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal/sysdetail/SysDetailPrg.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/sysdetail/SysDetailSvr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성 요소 알려주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록 버튼비활성화됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winpop/DevRepProgRegister.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬영역연결등록 비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음 나옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 다시 알려주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/PopTaskinfo.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/PopCommDrtr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>파일위치 확인 (/winpop/RequestDetail.jsp)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>administrator/ApprovalInfo.html</t>
-  </si>
-  <si>
-    <t>/administrator/UserInfo.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator/BuildReleaseInfo.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator/BuildReleaseInfo_tab2.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator/BuildReleaseInfo_tab3.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>program/ProgrmInfo.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modal/sysdetail/SysDetailUsr.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modal/sysdetail/SysDetailPrg.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/modal/sysdetail/SysDetailSvr.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성 요소 알려주세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 등록 버튼비활성화됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>winpop/DevRepProgRegister.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로컬영역연결등록 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보없음 나옴</t>
+    <t>winpop/RequestDetail.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청현황 &gt; 신청상세화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1475,51 +1509,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버튼비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/modal/PopTaskinfo.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/modal/PopCommDrtr.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용 &gt; SR 완료와 같은텝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 없음 ( 버튼명 : 정기배포설정)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eCmm0105.mxml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 다시 알려주세요 (관리자 &gt; 시스템정보 &gt; 프로그램종류정보(버튼) &gt; 프로그램처리속성트리구조작성(버튼)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">메뉴 다시 알려주세요 결재확인 &gt; 신청현황 &gt; 그리드 더블클릭 or 선택 후 우클릭 변경신청 상세 &gt; 선후행작업확인 버튼 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm_select</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileListCom.mxml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
+    <t>/modal/procedure.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal/SysCopyModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/AllApprovalInfoModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/CopyApprovalInfoModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/RangeApprovalInfoModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/RgtCdModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/winpop/AllSignUp.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/OrganizationModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/JobCopyModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/InitPassModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal/SetUserJobModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modal/AllUserInfoModal.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab명 확인 바랍니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1530,7 +1568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,15 +1644,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,12 +1718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,47 +1988,44 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2014,6 +2057,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2029,7 +2075,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{95BA9786-7970-42CE-8B1A-D7A2E27DB93E}" diskRevisions="1" revisionId="112" version="41">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FEE0F90A-87F7-450E-A17B-065C7FCA92F6}" diskRevisions="1" revisionId="124" version="58">
   <header guid="{0B29B57D-4461-46FF-886F-F72749850AEF}" dateTime="2019-06-19T16:13:19" maxSheetId="3" userName="lg-pc" r:id="rId3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -2450,19 +2496,121 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
-  <header guid="{76E2C4DE-E1B1-4301-8C3F-3804F565D5B1}" dateTime="2019-07-10T09:30:52" maxSheetId="3" userName="Windows 사용자" r:id="rId73" minRId="102" maxRId="105">
+  <header guid="{0117DACB-FBAF-4FE4-BF2D-1B7997D3EC2B}" dateTime="2019-07-09T17:29:19" maxSheetId="3" userName="lg-pc" r:id="rId73">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
-  <header guid="{B3E8F2A0-2266-4BE6-A93F-73F4B27FDB79}" dateTime="2019-07-10T09:39:21" maxSheetId="3" userName="Windows 사용자" r:id="rId74" minRId="106" maxRId="110">
+  <header guid="{C840C6D8-6599-4FC8-A656-D3C6E020BFD1}" dateTime="2019-07-10T16:33:50" maxSheetId="3" userName="lg-pc" r:id="rId74" minRId="104" maxRId="106">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
-  <header guid="{95BA9786-7970-42CE-8B1A-D7A2E27DB93E}" dateTime="2019-07-10T09:44:56" maxSheetId="3" userName="Windows 사용자" r:id="rId75">
+  <header guid="{C0DD17EA-51D6-4063-A139-135F134394E3}" dateTime="2019-07-10T16:49:12" maxSheetId="3" userName="lg-pc" r:id="rId75" minRId="109">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{30DF8C8C-A8C6-436D-B020-AA9F0E059DA4}" dateTime="2019-07-10T16:49:32" maxSheetId="3" userName="lg-pc" r:id="rId76">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8267CC79-F592-4111-BFC8-0EE08EC2BE11}" dateTime="2019-07-10T16:52:34" maxSheetId="3" userName="lg-pc" r:id="rId77" minRId="110">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0945EC4A-BDE9-4BFE-91C5-65A2EE4F351C}" dateTime="2019-07-10T16:52:41" maxSheetId="3" userName="lg-pc" r:id="rId78" minRId="111" maxRId="112">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2F8C0EF4-4B11-49FA-97C3-BDFE8124370A}" dateTime="2019-07-10T16:52:51" maxSheetId="3" userName="lg-pc" r:id="rId79">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{495CAA23-B9B8-423A-8A06-52C464DC2BE4}" dateTime="2019-07-11T12:22:17" maxSheetId="3" userName="lg-pc" r:id="rId80" minRId="113">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{61A56939-DD92-48F0-91FC-684C2A62633C}" dateTime="2019-07-11T12:42:04" maxSheetId="3" userName="lg-pc" r:id="rId81" minRId="114">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CCF464A8-7C3B-4740-A9E7-930E3D409B0A}" dateTime="2019-07-11T17:08:04" maxSheetId="3" userName="lg-pc" r:id="rId82" minRId="115">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6743B8D1-3FBF-41C6-847F-944E9D43B0F6}" dateTime="2019-07-11T17:08:09" maxSheetId="3" userName="lg-pc" r:id="rId83">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6D205212-A6E2-426B-A21E-4CC26B2EB2C4}" dateTime="2019-07-11T17:23:58" maxSheetId="3" userName="lg-pc" r:id="rId84" minRId="116">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2EE337DB-A327-4561-ADA8-63B051A2EB41}" dateTime="2019-07-16T15:10:44" maxSheetId="3" userName="lg-pc" r:id="rId85" minRId="117">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4E8FB5ED-256F-4824-8D1A-CBBF4C82F05A}" dateTime="2019-07-16T15:21:26" maxSheetId="3" userName="lg-pc" r:id="rId86" minRId="118">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EF71AC75-8F24-46A5-8DFC-9A6B5EBF0949}" dateTime="2019-07-16T15:58:33" maxSheetId="3" userName="lg-pc" r:id="rId87" minRId="119" maxRId="120">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F5BAD244-D4FF-46E7-AEED-194E8EF38A04}" dateTime="2019-07-16T16:02:44" maxSheetId="3" userName="lg-pc" r:id="rId88" minRId="121">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CAE82A5E-2657-440B-B480-8F4ECB56F1B9}" dateTime="2019-07-16T16:24:38" maxSheetId="3" userName="lg-pc" r:id="rId89" minRId="122">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4C581382-763A-45F1-8084-4029146E28BB}" dateTime="2019-07-16T16:35:46" maxSheetId="3" userName="lg-pc" r:id="rId90" minRId="123">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BD34FF35-8569-47E8-B154-00673BC01A91}" dateTime="2019-07-16T16:36:50" maxSheetId="3" userName="lg-pc" r:id="rId91" minRId="124">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FEE0F90A-87F7-450E-A17B-065C7FCA92F6}" dateTime="2019-07-16T16:36:55" maxSheetId="3" userName="lg-pc" r:id="rId92">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2711,34 +2859,21 @@
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="J27">
+  <rcc rId="113" sId="1">
+    <nc r="J47" t="inlineStr">
+      <is>
+        <t>modal/SysCopyModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J47" start="0" length="2147483647">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </rfmt>
-  <rfmt sheetId="1" sqref="J24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet1!$A$1:$I$67</formula>
-    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_389022EC_185D_42EE_9DE0_73B1525F48D9_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$2:$D$70</formula>
-    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
-  </rdn>
-  <rcv guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" action="add"/>
 </revisions>
 </file>
 
@@ -4296,69 +4431,80 @@
 
 <file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="J7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="102" sId="1">
-    <nc r="J20" t="inlineStr">
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="104" sId="1">
+    <oc r="J26" t="inlineStr">
       <is>
-        <t>적용 &gt; SR 완료와 같은텝</t>
+        <t>파일위치 확인 (/winpop/RequestDetail.jsp)</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>파일위치 확인 (/winpop/RequestDetail.jsp)</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="103" sId="1">
-    <oc r="J39" t="inlineStr">
+  <rm rId="105" sheetId="1" source="J26" destination="K26" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="K26" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="맑은 고딕"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="106" sId="1">
+    <nc r="J26" t="inlineStr">
       <is>
-        <t>버튼 없음</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="J39" t="inlineStr">
-      <is>
-        <t>버튼 없음 ( 버튼명 : 정기배포설정)</t>
+        <t>winpop/RequestDetail.html</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="104" sId="1">
-    <oc r="D45" t="inlineStr">
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$I$67</formula>
+    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$2:$D$70</formula>
+    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
+  </rdn>
+  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="109" sId="1">
+    <oc r="C26" t="inlineStr">
       <is>
-        <t>eCmm0105.mxml</t>
-      </is>
-    </oc>
-    <nc r="D45" t="inlineStr">
-      <is>
-        <t>eCmm0105.mxml</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="J45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="105" sId="1">
-    <oc r="J45" t="inlineStr">
-      <is>
-        <t>메뉴 다시 알려주세요</t>
+        <t>신청현황 &gt; 신청상세화면</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="J45" t="inlineStr">
+    <nc r="C26" t="inlineStr">
       <is>
-        <t>메뉴 다시 알려주세요 (관리자 &gt; 시스템정보 &gt; 프로그램종류정보(버튼) &gt; 프로그램처리속성트리구조작성(버튼)</t>
+        <t>신청현황 &gt; 신청상세화면</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4366,51 +4512,28 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="106" sId="1">
-    <oc r="J28" t="inlineStr">
-      <is>
-        <t>메뉴 다시 알려주세요</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="J28" t="inlineStr">
-      <is>
-        <t xml:space="preserve">메뉴 다시 알려주세요 결재확인 &gt; 신청현황 &gt; 그리드 더블클릭 or 선택 후 우클릭 변경신청 상세 &gt; 선후행작업확인 버튼 </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="107" sId="1">
-    <oc r="D24" t="inlineStr">
-      <is>
-        <t>Confirm_select</t>
-      </is>
-    </oc>
-    <nc r="D24" t="inlineStr">
-      <is>
-        <t>Confirm_select</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcmt sheetId="1" cell="J24" guid="{00000000-0000-0000-0000-000000000000}" action="delete" author="Windows 사용자"/>
-  <rcc rId="108" sId="1">
-    <oc r="D27" t="inlineStr">
-      <is>
-        <t>fileListCom.mxml</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D27" t="inlineStr">
-      <is>
-        <t>fileListCom.mxml</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="109" sId="1">
+  <rfmt sheetId="1" sqref="J1:J1048576" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J26" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="110" sId="1">
     <oc r="J24" t="inlineStr">
       <is>
         <t>메뉴 다시 알려주세요</t>
@@ -4419,25 +4542,92 @@
     </oc>
     <nc r="J24" t="inlineStr">
       <is>
-        <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
+        <t>procedure.html</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="110" sId="1">
-    <oc r="J27" t="inlineStr">
+  <rfmt sheetId="1" sqref="J24" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="111" sId="1">
+    <oc r="J23" t="inlineStr">
       <is>
-        <t>메뉴 다시 알려주세요</t>
+        <t>/modal/PopPredecessor.html</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="J27" t="inlineStr">
+    <nc r="J23" t="inlineStr">
       <is>
-        <t>메뉴 다시 알려주세요 (이미지 메일로 전달)</t>
+        <t>/modal/PopPredecessor.html</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
+  <rcc rId="112" sId="1">
+    <oc r="J24" t="inlineStr">
+      <is>
+        <t>procedure.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J24" t="inlineStr">
+      <is>
+        <t>/modal/procedure.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog78.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J24" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog79.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="114" sId="1">
+    <nc r="J49" t="inlineStr">
+      <is>
+        <t>/modal/AllApprovalInfoModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J49" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -4456,6 +4646,179 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="115" sId="1">
+    <nc r="J50" t="inlineStr">
+      <is>
+        <t>/modal/CopyApprovalInfoModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog81.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J50" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog82.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="116" sId="1">
+    <nc r="J51" t="inlineStr">
+      <is>
+        <t>/modal/RangeApprovalInfoModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="J51" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J68" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J69" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J70" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog83.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="117" sId="1">
+    <nc r="J53" t="inlineStr">
+      <is>
+        <t>/modal/RgtCdModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog84.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J53" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J53:J59" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="118" sId="1">
+    <nc r="J54" t="inlineStr">
+      <is>
+        <t>/winpop/AllSignUp.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog85.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="119" sId="1">
+    <nc r="J55" t="inlineStr">
+      <is>
+        <t>/modal/OrganizationModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="120" sId="1">
+    <nc r="J56" t="inlineStr">
+      <is>
+        <t>/modal/JobCopyModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog86.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="121" sId="1">
+    <nc r="J57" t="inlineStr">
+      <is>
+        <t>/modal/InitPassModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog87.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="122" sId="1">
+    <nc r="J58" t="inlineStr">
+      <is>
+        <t>modal/SetUserJobModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog88.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="123" sId="1">
+    <nc r="J59" t="inlineStr">
+      <is>
+        <t>/modal/AllUserInfoModal.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog89.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="124" sId="1">
+    <nc r="J65" t="inlineStr">
+      <is>
+        <t>tab명 확인 바랍니다.</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="13" sId="1">
@@ -4471,9 +4834,24 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<file path=xl/revisions/revisionLog90.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J65">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
+  <userInfo guid="{FEE0F90A-87F7-450E-A17B-065C7FCA92F6}" name="lg-pc" id="-989688685" dateTime="2019-07-16T16:49:34"/>
 </users>
 </file>
 
@@ -4740,10 +5118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4757,7 +5135,7 @@
     <col min="7" max="7" width="7" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.75" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="92.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="54" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -4775,7 +5153,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>4</v>
@@ -4789,17 +5167,17 @@
       <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>333</v>
+      <c r="J1" s="53" t="s">
+        <v>335</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -4828,17 +5206,17 @@
       <c r="I2" s="40">
         <v>1</v>
       </c>
-      <c r="J2" s="51" t="s">
-        <v>340</v>
+      <c r="J2" s="54" t="s">
+        <v>342</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L2" s="42">
         <v>27</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4867,17 +5245,17 @@
       <c r="I3" s="15">
         <v>2</v>
       </c>
-      <c r="J3" s="58" t="s">
-        <v>365</v>
+      <c r="J3" s="55" t="s">
+        <v>366</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L3" s="9">
         <v>3</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4888,7 +5266,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>20</v>
@@ -4915,7 +5293,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -4926,7 +5304,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>28</v>
@@ -4944,77 +5322,77 @@
       <c r="I5" s="42">
         <v>1</v>
       </c>
-      <c r="J5" s="51" t="s">
-        <v>339</v>
+      <c r="J5" s="54" t="s">
+        <v>341</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L5" s="42">
         <v>26</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>85</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
       </c>
-      <c r="J6" s="52" t="s">
-        <v>342</v>
+      <c r="J6" s="56" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="61" t="s">
-        <v>366</v>
+      <c r="J7" s="57" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -5025,7 +5403,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>33</v>
@@ -5043,19 +5421,19 @@
       <c r="I8" s="42">
         <v>1</v>
       </c>
-      <c r="J8" s="51" t="s">
-        <v>338</v>
+      <c r="J8" s="54" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -5067,6 +5445,7 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -5092,7 +5471,7 @@
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="53"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
@@ -5102,7 +5481,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>43</v>
@@ -5118,8 +5497,8 @@
       <c r="I11" s="42">
         <v>1</v>
       </c>
-      <c r="J11" s="51" t="s">
-        <v>341</v>
+      <c r="J11" s="54" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -5148,64 +5527,64 @@
       <c r="I12" s="42">
         <v>1</v>
       </c>
-      <c r="J12" s="51" t="s">
-        <v>337</v>
+      <c r="J12" s="54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="17">
         <v>2</v>
       </c>
-      <c r="J13" s="55" t="s">
-        <v>367</v>
+      <c r="J13" s="54" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="17">
         <v>3</v>
       </c>
-      <c r="J14" s="61" t="s">
-        <v>368</v>
+      <c r="J14" s="57" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -5222,7 +5601,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>52</v>
@@ -5234,19 +5613,19 @@
       <c r="I15" s="42">
         <v>1</v>
       </c>
-      <c r="J15" s="51" t="s">
-        <v>343</v>
+      <c r="J15" s="54" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
@@ -5260,19 +5639,19 @@
       <c r="I16" s="17">
         <v>2</v>
       </c>
-      <c r="J16" s="61" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
@@ -5280,22 +5659,23 @@
         <v>52</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
@@ -5303,22 +5683,23 @@
         <v>52</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
@@ -5326,22 +5707,23 @@
         <v>52</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
@@ -5349,17 +5731,15 @@
         <v>52</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="17">
         <v>3</v>
       </c>
-      <c r="J20" s="62" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
@@ -5383,11 +5763,11 @@
       <c r="I21" s="42">
         <v>1</v>
       </c>
-      <c r="J21" s="51" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J21" s="54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>31</v>
       </c>
@@ -5401,7 +5781,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>56</v>
@@ -5413,69 +5793,69 @@
       <c r="I22" s="42">
         <v>1</v>
       </c>
-      <c r="J22" s="51" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="10">
         <v>3</v>
       </c>
-      <c r="J23" s="59" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>379</v>
+        <v>95</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I24" s="10">
         <v>2</v>
       </c>
-      <c r="J24" s="63" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="62" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>40</v>
       </c>
@@ -5489,7 +5869,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>56</v>
@@ -5501,25 +5881,25 @@
       <c r="I25" s="42">
         <v>1</v>
       </c>
-      <c r="J25" s="51" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J25" s="54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>235</v>
+        <v>378</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>22</v>
@@ -5531,67 +5911,70 @@
       <c r="I26" s="47">
         <v>1</v>
       </c>
-      <c r="J26" s="54" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="10">
         <v>2</v>
       </c>
-      <c r="J27" s="63" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I28" s="10">
         <v>3</v>
       </c>
-      <c r="J28" s="63" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J28" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>64</v>
       </c>
@@ -5605,7 +5988,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>56</v>
@@ -5617,67 +6000,67 @@
       <c r="I29" s="42">
         <v>1</v>
       </c>
-      <c r="J29" s="57" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="J29" s="59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>3</v>
       </c>
-      <c r="J30" s="63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="J30" s="55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="17">
         <v>3</v>
       </c>
-      <c r="J31" s="63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>35</v>
       </c>
@@ -5685,7 +6068,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>69</v>
@@ -5701,8 +6084,8 @@
       <c r="I32" s="42">
         <v>1</v>
       </c>
-      <c r="J32" s="51" t="s">
-        <v>347</v>
+      <c r="J32" s="54" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5713,7 +6096,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>91</v>
@@ -5729,8 +6112,8 @@
       <c r="I33" s="42">
         <v>1</v>
       </c>
-      <c r="J33" s="57" t="s">
-        <v>358</v>
+      <c r="J33" s="59" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5741,7 +6124,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>91</v>
@@ -5757,8 +6140,8 @@
       <c r="I34" s="42">
         <v>1</v>
       </c>
-      <c r="J34" s="57" t="s">
-        <v>359</v>
+      <c r="J34" s="59" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5769,7 +6152,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>91</v>
@@ -5785,8 +6168,8 @@
       <c r="I35" s="42">
         <v>1</v>
       </c>
-      <c r="J35" s="57" t="s">
-        <v>360</v>
+      <c r="J35" s="59" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5813,8 +6196,8 @@
       <c r="I36" s="42">
         <v>1</v>
       </c>
-      <c r="J36" s="51" t="s">
-        <v>348</v>
+      <c r="J36" s="54" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5841,8 +6224,8 @@
       <c r="I37" s="42">
         <v>1</v>
       </c>
-      <c r="J37" s="51" t="s">
-        <v>349</v>
+      <c r="J37" s="54" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
@@ -5859,7 +6242,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>22</v>
@@ -5871,8 +6254,8 @@
       <c r="I38" s="42">
         <v>1</v>
       </c>
-      <c r="J38" s="51" t="s">
-        <v>350</v>
+      <c r="J38" s="54" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5880,27 +6263,27 @@
         <v>93</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="10">
         <v>3</v>
       </c>
-      <c r="J39" s="64" t="s">
-        <v>375</v>
+      <c r="J39" s="60" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5908,27 +6291,27 @@
         <v>93</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="10">
         <v>3</v>
       </c>
-      <c r="J40" s="59" t="s">
-        <v>372</v>
+      <c r="J40" s="58" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5936,13 +6319,13 @@
         <v>93</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="45" t="s">
@@ -5955,8 +6338,8 @@
       <c r="I41" s="45">
         <v>1</v>
       </c>
-      <c r="J41" s="55" t="s">
-        <v>363</v>
+      <c r="J41" s="54" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5964,13 +6347,13 @@
         <v>93</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E42" s="50"/>
       <c r="F42" s="45" t="s">
@@ -5983,8 +6366,8 @@
       <c r="I42" s="45">
         <v>1</v>
       </c>
-      <c r="J42" s="55" t="s">
-        <v>362</v>
+      <c r="J42" s="54" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5992,13 +6375,13 @@
         <v>93</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="45" t="s">
@@ -6011,70 +6394,70 @@
       <c r="I43" s="45">
         <v>1</v>
       </c>
-      <c r="J43" s="55" t="s">
-        <v>364</v>
+      <c r="J43" s="54" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I44" s="45">
         <v>1</v>
       </c>
-      <c r="J44" s="51" t="s">
-        <v>351</v>
+      <c r="J44" s="54" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>376</v>
+        <v>97</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I45" s="10">
         <v>2</v>
       </c>
-      <c r="J45" s="63" t="s">
-        <v>377</v>
+      <c r="J45" s="55" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -6082,27 +6465,27 @@
         <v>93</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="10">
         <v>3</v>
       </c>
-      <c r="J46" s="60" t="s">
-        <v>373</v>
+      <c r="J46" s="61" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -6110,26 +6493,29 @@
         <v>93</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I47" s="10">
         <v>2</v>
+      </c>
+      <c r="J47" s="63" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -6158,84 +6544,93 @@
       <c r="I48" s="42">
         <v>1</v>
       </c>
-      <c r="J48" s="56" t="s">
-        <v>356</v>
+      <c r="J48" s="54" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="10">
         <v>3</v>
       </c>
+      <c r="J49" s="63" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="10">
         <v>2</v>
       </c>
+      <c r="J50" s="63" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="10">
         <v>3</v>
       </c>
+      <c r="J51" s="63" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
@@ -6251,7 +6646,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>56</v>
@@ -6263,22 +6658,22 @@
       <c r="I52" s="42">
         <v>1</v>
       </c>
-      <c r="J52" s="55" t="s">
-        <v>357</v>
+      <c r="J52" s="54" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="10" t="s">
@@ -6291,16 +6686,19 @@
       <c r="I53" s="10">
         <v>3</v>
       </c>
+      <c r="J53" s="63" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -6314,71 +6712,80 @@
       <c r="I54" s="10">
         <v>3</v>
       </c>
+      <c r="J54" s="63" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="10">
         <v>3</v>
       </c>
+      <c r="J55" s="63" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I56" s="10">
         <v>2</v>
       </c>
+      <c r="J56" s="63" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="10" t="s">
@@ -6391,19 +6798,22 @@
       <c r="I57" s="10">
         <v>3</v>
       </c>
+      <c r="J57" s="63" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="10" t="s">
@@ -6416,31 +6826,37 @@
       <c r="I58" s="10">
         <v>3</v>
       </c>
+      <c r="J58" s="63" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="10">
         <v>3</v>
       </c>
+      <c r="J59" s="63" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
@@ -6466,8 +6882,8 @@
       <c r="I60" s="42">
         <v>1</v>
       </c>
-      <c r="J60" s="51" t="s">
-        <v>354</v>
+      <c r="J60" s="54" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6494,8 +6910,8 @@
       <c r="I61" s="42">
         <v>1</v>
       </c>
-      <c r="J61" s="51" t="s">
-        <v>353</v>
+      <c r="J61" s="54" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -6506,7 +6922,7 @@
         <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>90</v>
@@ -6522,6 +6938,7 @@
       <c r="I62" s="1">
         <v>2</v>
       </c>
+      <c r="J62" s="58"/>
     </row>
     <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -6531,7 +6948,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>90</v>
@@ -6547,6 +6964,7 @@
       <c r="I63" s="1">
         <v>2</v>
       </c>
+      <c r="J63" s="58"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -6556,7 +6974,7 @@
         <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>90</v>
@@ -6572,8 +6990,9 @@
       <c r="I64" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="58"/>
+    </row>
+    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -6581,7 +7000,7 @@
         <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
@@ -6597,8 +7016,11 @@
       <c r="I65" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="74" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -6606,7 +7028,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>90</v>
@@ -6622,8 +7044,9 @@
       <c r="I66" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="58"/>
+    </row>
+    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -6631,7 +7054,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>90</v>
@@ -6647,25 +7070,34 @@
       <c r="I67" s="1">
         <v>2</v>
       </c>
+      <c r="J67" s="58"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J68" s="58"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="58"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J70" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I67"/>
   <customSheetViews>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1" topLeftCell="B1">
-      <selection activeCell="J26" sqref="J26"/>
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1" topLeftCell="A6">
+      <selection activeCell="P32" sqref="P32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
       <autoFilter ref="A1:I67"/>
     </customSheetView>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" filter="1" showAutoFilter="1" topLeftCell="A3">
-      <selection activeCell="J28" sqref="J28"/>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="D1">
+      <selection activeCell="O33" sqref="O33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A1:I67">
         <filterColumn colId="8">
           <filters>
-            <filter val="2"/>
-            <filter val="3"/>
+            <filter val="1"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -6678,7 +7110,7 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5 F8:F12 F14:F22 F25:F26 F29:F38 F48 F52 F60:F67">
       <formula1>"O,X,-"</formula1>
     </dataValidation>
@@ -6710,203 +7142,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="67"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="68"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="26">
         <v>4</v>
       </c>
@@ -7042,11 +7474,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
@@ -7097,11 +7529,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -7152,11 +7584,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -7207,11 +7639,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="31"/>
@@ -7266,7 +7698,7 @@
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="31"/>
@@ -7321,7 +7753,7 @@
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="20"/>
@@ -7372,11 +7804,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="20"/>
@@ -7427,11 +7859,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -7482,11 +7914,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7537,11 +7969,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7592,11 +8024,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -7647,11 +8079,11 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -7706,7 +8138,7 @@
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -7761,7 +8193,7 @@
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -7816,7 +8248,7 @@
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -7867,11 +8299,11 @@
         <v>16</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -7922,11 +8354,11 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -7977,11 +8409,11 @@
         <v>18</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -8032,11 +8464,11 @@
         <v>19</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -8087,11 +8519,11 @@
         <v>20</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -8146,7 +8578,7 @@
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -8197,11 +8629,11 @@
         <v>22</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -8252,11 +8684,11 @@
         <v>23</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -8307,11 +8739,11 @@
         <v>24</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8362,11 +8794,11 @@
         <v>25</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -8417,11 +8849,11 @@
         <v>26</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -8472,11 +8904,11 @@
         <v>27</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -8527,11 +8959,11 @@
         <v>28</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -8586,7 +9018,7 @@
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="29" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -8641,7 +9073,7 @@
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -8696,7 +9128,7 @@
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -8747,11 +9179,11 @@
         <v>32</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -8802,11 +9234,11 @@
         <v>33</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -8857,11 +9289,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -8912,11 +9344,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -8967,11 +9399,11 @@
         <v>36</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -9022,11 +9454,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -9081,7 +9513,7 @@
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -9132,11 +9564,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -9187,11 +9619,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -9242,11 +9674,11 @@
         <v>41</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -9297,11 +9729,11 @@
         <v>42</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -9352,11 +9784,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -9411,7 +9843,7 @@
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -9462,11 +9894,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -9517,11 +9949,11 @@
         <v>46</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -9572,11 +10004,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -9627,11 +10059,11 @@
         <v>48</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -9682,11 +10114,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -9737,11 +10169,11 @@
         <v>50</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -9796,7 +10228,7 @@
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -9851,7 +10283,7 @@
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="29" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -9902,11 +10334,11 @@
         <v>53</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -9957,11 +10389,11 @@
         <v>54</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -10012,11 +10444,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -10067,11 +10499,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="29" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -10126,7 +10558,7 @@
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -10177,11 +10609,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -10232,11 +10664,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -10287,11 +10719,11 @@
         <v>60</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -10342,7 +10774,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="28"/>
@@ -10448,7 +10880,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="28"/>
@@ -10501,7 +10933,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="29"/>
@@ -10554,7 +10986,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="29"/>
@@ -10607,7 +11039,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="29"/>
@@ -10658,13 +11090,13 @@
   </sheetData>
   <autoFilter ref="A2:D70"/>
   <customSheetViews>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>

--- a/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
+++ b/WebContent/new_html5/eCAMS 주요 대상화면.xlsx
@@ -22,15 +22,15 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1364" windowHeight="748" activeSheetId="1"/>
+    <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
     <customWorkbookView name="lg-pc - 사용자 보기" guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="845" activeSheetId="1"/>
-    <customWorkbookView name="hyjung - 사용자 보기" guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1505" windowHeight="825" activeSheetId="2"/>
-    <customWorkbookView name="Windows 사용자 - 사용자 보기" guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1364" windowHeight="748" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="405">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1453,22 +1453,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구성 요소 알려주세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>winpop/DevRepProgRegister.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정보없음 나옴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 다시 알려주세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/modal/PopTaskinfo.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1587,6 +1575,32 @@
   </si>
   <si>
     <t>/winpop/ProConRegistration.html</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0718이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/winpop/CheckOutTab2.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/winpop/CheckOutTab1.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/winpop/CheckOutTab3.html</t>
+  </si>
+  <si>
+    <t>/winpop/CheckOutTab4.html</t>
+  </si>
+  <si>
+    <t>/winpop/CheckOutTab5.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1596,7 +1610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,14 +1700,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1711,7 +1717,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1886,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2031,12 +2037,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2052,13 +2052,64 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,64 +2124,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2148,43 +2142,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3C4733C4-ACC7-43B1-B919-F9D44E4F7653}" diskRevisions="1" revisionId="155" version="82">
-  <header guid="{0B29B57D-4461-46FF-886F-F72749850AEF}" dateTime="2019-06-19T16:13:19" maxSheetId="3" userName="lg-pc" r:id="rId3">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2A9F638C-DE83-4648-86A9-453C14151D08}" dateTime="2019-06-20T10:58:34" maxSheetId="3" userName="lg-pc" r:id="rId4" minRId="6">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{736EECD3-B483-4E26-997D-1D5E49B266EA}" dateTime="2019-06-20T10:58:41" maxSheetId="3" userName="lg-pc" r:id="rId5" minRId="9">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F34E295D-14E4-44F4-BE04-ADDBDFEA75DD}" dateTime="2019-06-20T10:58:46" maxSheetId="3" userName="lg-pc" r:id="rId6" minRId="10">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{904EBC29-84C1-4AD7-95C1-E6448BF8DE0B}" dateTime="2019-06-20T10:58:58" maxSheetId="3" userName="lg-pc" r:id="rId7" minRId="11" maxRId="12">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F7C8C7BF-F144-4AD0-9B1C-D686CB65E2ED}" dateTime="2019-06-20T12:27:34" maxSheetId="3" userName="lg-pc" r:id="rId8">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1741A6B2-B1F6-4388-B137-6177BCC73800}" diskRevisions="1" revisionId="165" version="95">
   <header guid="{70C1C6EC-04D5-4A70-9678-8CCE6D93AFE1}" dateTime="2019-06-25T14:03:21" maxSheetId="3" userName="lg-pc" r:id="rId9" minRId="13" maxRId="14">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -2833,6 +2791,84 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{93996B19-4CEA-4146-A272-84A911FA4806}" dateTime="2019-07-18T16:49:04" maxSheetId="3" userName="lg-pc" r:id="rId117">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{85EB3510-077E-41F5-879B-75D2884C8AFA}" dateTime="2019-07-18T16:49:14" maxSheetId="3" userName="lg-pc" r:id="rId118">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{55186485-04CB-4A3C-B585-43EF1D5653BF}" dateTime="2019-07-18T16:49:27" maxSheetId="3" userName="lg-pc" r:id="rId119" minRId="156">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F070304E-BDCC-4924-A4EE-86B1A0C2D3E2}" dateTime="2019-07-18T16:49:31" maxSheetId="3" userName="lg-pc" r:id="rId120">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{607605CB-A9FB-4626-91E1-5427320FA888}" dateTime="2019-07-18T16:49:45" maxSheetId="3" userName="lg-pc" r:id="rId121" minRId="157">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{04B70C45-346D-4597-9495-DC3938C12C0D}" dateTime="2019-07-19T12:55:08" maxSheetId="3" userName="lg-pc" r:id="rId122" minRId="158" maxRId="159">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E95E968E-DD4F-45E8-ACB5-7316B0B479EC}" dateTime="2019-07-19T15:30:52" maxSheetId="3" userName="lg-pc" r:id="rId123" minRId="160">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{449A8064-665F-4C56-A5DC-A92375DAA4A0}" dateTime="2019-07-22T15:11:11" maxSheetId="3" userName="lg-pc" r:id="rId124" minRId="161">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CAD8D3AB-47AB-472F-B692-BAFCDD041C7C}" dateTime="2019-07-22T15:11:58" maxSheetId="3" userName="lg-pc" r:id="rId125" minRId="162">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0616290A-ED05-4580-994D-83F1D6E490E2}" dateTime="2019-07-22T15:54:23" maxSheetId="3" userName="lg-pc" r:id="rId126" minRId="163">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{302E0B27-EEB7-4BC7-B924-1A875E5EB9D7}" dateTime="2019-07-22T15:54:29" maxSheetId="3" userName="lg-pc" r:id="rId127">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8F32889B-5F32-4859-9779-0B9E02CD7068}" dateTime="2019-07-22T15:56:26" maxSheetId="3" userName="lg-pc" r:id="rId128" minRId="164">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1741A6B2-B1F6-4388-B137-6177BCC73800}" dateTime="2019-07-22T15:56:32" maxSheetId="3" userName="lg-pc" r:id="rId129" minRId="165">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3304,6 +3340,177 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog115.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J24 J26 J47 J49 J50 J51" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J53:J59" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J62:J67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J62:J67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J30:J31" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J39 J45" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J39 J45">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J14 J10 J7" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J14 J10 J7">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog116.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog117.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="156" sId="1">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <t>구성 요소 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>e-mail</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog118.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J3" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog119.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J17" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J18" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J19" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J20" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="157" sId="1">
+    <oc r="J16" t="inlineStr">
+      <is>
+        <t>정보없음 나옴</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J16"/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="22" sId="1">
@@ -3328,6 +3535,74 @@
     <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
   </rdn>
   <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog120.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="158" sId="1">
+    <oc r="J27" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J27" t="inlineStr">
+      <is>
+        <t>0718이메일</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="J28" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="159" sId="1">
+    <oc r="J28" t="inlineStr">
+      <is>
+        <t>메뉴 다시 알려주세요</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>0718이메일</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="160" sId="1">
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>~ing</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -3685,13 +3960,14 @@
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet1!$A$1:$I$67</formula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$2:$D$70</formula>
-  </rdn>
-  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
+  <rcc rId="161" sId="1">
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>/winpop/CheckOutTab2.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -3924,59 +4200,34 @@
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="6" sId="1">
-    <nc r="J1" t="inlineStr">
-      <is>
-        <t>html</t>
+  <rfmt sheetId="1" sqref="J17" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J16" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="162" sId="1">
+    <oc r="J16" t="inlineStr">
+      <is>
+        <t>~ing</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>/winpop/CheckOutTab1.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rfmt sheetId="1" sqref="J1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet1!$A$1:$I$67</formula>
-    <oldFormula>Sheet1!$A$1:$I$67</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_47AFC98A_5605_4276_9025_C8AAF1B90CC1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$2:$D$70</formula>
-    <oldFormula>Sheet2!$A$2:$D$70</oldFormula>
-  </rdn>
-  <rcv guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" action="add"/>
 </revisions>
 </file>
 
@@ -4191,49 +4442,24 @@
 
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="9" sId="1">
-    <nc r="J6" t="inlineStr">
-      <is>
-        <t>o</t>
+  <rcc rId="163" sId="1" xfDxf="1" dxf="1">
+    <nc r="J18" t="inlineStr">
+      <is>
+        <t>/winpop/CheckOutTab3.html</t>
       </is>
     </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="J6">
-    <dxf>
+    <ndxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
 </revisions>
 </file>
 
@@ -4505,16 +4731,13 @@
 
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="10" sId="1">
-    <oc r="J6" t="inlineStr">
-      <is>
-        <t>o</t>
-      </is>
-    </oc>
-    <nc r="J6">
-      <v>0</v>
-    </nc>
-  </rcc>
+  <rfmt sheetId="1" sqref="J18:J20" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -4889,16 +5112,23 @@
 
 <file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="11" sId="1">
-    <oc r="J6">
-      <v>0</v>
-    </oc>
-    <nc r="J6"/>
-  </rcc>
-  <rcc rId="12" sId="1">
-    <nc r="J5">
-      <v>0</v>
+  <rcc rId="164" sId="1" xfDxf="1" dxf="1">
+    <nc r="J19" t="inlineStr">
+      <is>
+        <t>/winpop/CheckOutTab4.html</t>
+      </is>
     </nc>
+    <ndxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
   </rcc>
 </revisions>
 </file>
@@ -5217,16 +5447,27 @@
 
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="J1:J2 J4:J6 J8 J10:J12 J15 J21:J22 J25:J26 J29 J32:J38 J41:J44 J48 J52 J60:J61 J68:J1048576">
+  <rfmt sheetId="1" xfDxf="1" sqref="J20" start="0" length="0">
     <dxf>
-      <alignment horizontal="general" readingOrder="0"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" readingOrder="0"/>
     </dxf>
   </rfmt>
-  <rfmt sheetId="1" sqref="J1:J2 J4:J6 J8 J10:J12 J15 J21:J22 J25:J26 J29 J32:J38 J41:J44 J48 J52 J60:J61 J68:J1048576">
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
+  <rcc rId="165" sId="1">
+    <nc r="J20" t="inlineStr">
+      <is>
+        <t>/winpop/CheckOutTab5.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -5673,10 +5914,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{74C94377-1DDB-4FF8-8B81-78354B54D8AC}" name="Windows 사용자" id="-510564403" dateTime="2019-07-04T16:36:18"/>
-  <userInfo guid="{3C4733C4-ACC7-43B1-B919-F9D44E4F7653}" name="lg-pc" id="-989721528" dateTime="2019-07-18T13:32:09"/>
 </users>
 </file>
 
@@ -5935,7 +6175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5945,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6070,8 +6310,8 @@
       <c r="I3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>366</v>
+      <c r="J3" s="56" t="s">
+        <v>398</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>231</v>
@@ -6188,7 +6428,7 @@
       <c r="I6" s="38">
         <v>1</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="66" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6216,8 +6456,8 @@
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>398</v>
+      <c r="J7" s="65" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -6254,52 +6494,52 @@
       <c r="A9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="38" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="80" t="s">
-        <v>399</v>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="61" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="76">
+      <c r="H10" s="60"/>
+      <c r="I10" s="59">
         <v>1</v>
       </c>
-      <c r="J10" s="78" t="s">
-        <v>397</v>
+      <c r="J10" s="65" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6385,7 +6625,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6412,8 +6652,8 @@
       <c r="I14" s="10">
         <v>3</v>
       </c>
-      <c r="J14" s="81" t="s">
-        <v>400</v>
+      <c r="J14" s="65" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6468,8 +6708,8 @@
       <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="49" t="s">
-        <v>368</v>
+      <c r="J16" s="77" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
@@ -6494,7 +6734,9 @@
       <c r="I17" s="10">
         <v>3</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="77" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -6518,7 +6760,9 @@
       <c r="I18" s="10">
         <v>3</v>
       </c>
-      <c r="J18" s="50"/>
+      <c r="J18" s="77" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -6542,7 +6786,9 @@
       <c r="I19" s="10">
         <v>3</v>
       </c>
-      <c r="J19" s="50"/>
+      <c r="J19" s="77" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -6566,7 +6812,9 @@
       <c r="I20" s="10">
         <v>3</v>
       </c>
-      <c r="J20" s="50"/>
+      <c r="J20" s="77" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
@@ -6650,8 +6898,8 @@
       <c r="I23" s="5">
         <v>3</v>
       </c>
-      <c r="J23" s="50" t="s">
-        <v>374</v>
+      <c r="J23" s="48" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
@@ -6680,8 +6928,8 @@
       <c r="I24" s="5">
         <v>2</v>
       </c>
-      <c r="J24" s="54" t="s">
-        <v>387</v>
+      <c r="J24" s="62" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6722,7 +6970,7 @@
         <v>136</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>137</v>
@@ -6740,11 +6988,11 @@
       <c r="I26" s="40">
         <v>1</v>
       </c>
-      <c r="J26" s="55" t="s">
-        <v>388</v>
+      <c r="J26" s="46" t="s">
+        <v>385</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
@@ -6770,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
@@ -6800,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -6829,64 +7077,64 @@
       <c r="I29" s="35">
         <v>1</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="49" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="68" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="68">
+      <c r="H30" s="55"/>
+      <c r="I30" s="53">
         <v>3</v>
       </c>
-      <c r="J30" s="72" t="s">
-        <v>394</v>
+      <c r="J30" s="52" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="68" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="68">
+      <c r="H31" s="55"/>
+      <c r="I31" s="53">
         <v>3</v>
       </c>
-      <c r="J31" s="72" t="s">
-        <v>393</v>
+      <c r="J31" s="52" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6941,7 +7189,7 @@
       <c r="I33" s="35">
         <v>1</v>
       </c>
-      <c r="J33" s="51" t="s">
+      <c r="J33" s="49" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6969,7 +7217,7 @@
       <c r="I34" s="35">
         <v>1</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J34" s="49" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6997,7 +7245,7 @@
       <c r="I35" s="35">
         <v>1</v>
       </c>
-      <c r="J35" s="51" t="s">
+      <c r="J35" s="49" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7111,8 +7359,8 @@
       <c r="I39" s="5">
         <v>3</v>
       </c>
-      <c r="J39" s="73" t="s">
-        <v>395</v>
+      <c r="J39" s="64" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7139,8 +7387,8 @@
       <c r="I40" s="5">
         <v>3</v>
       </c>
-      <c r="J40" s="50" t="s">
-        <v>370</v>
+      <c r="J40" s="48" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -7285,8 +7533,8 @@
       <c r="I45" s="5">
         <v>2</v>
       </c>
-      <c r="J45" s="71" t="s">
-        <v>396</v>
+      <c r="J45" s="52" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7313,8 +7561,8 @@
       <c r="I46" s="5">
         <v>3</v>
       </c>
-      <c r="J46" s="52" t="s">
-        <v>371</v>
+      <c r="J46" s="50" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7343,8 +7591,8 @@
       <c r="I47" s="5">
         <v>2</v>
       </c>
-      <c r="J47" s="53" t="s">
-        <v>389</v>
+      <c r="J47" s="48" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -7401,8 +7649,8 @@
       <c r="I49" s="5">
         <v>3</v>
       </c>
-      <c r="J49" s="53" t="s">
-        <v>375</v>
+      <c r="J49" s="48" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7429,8 +7677,8 @@
       <c r="I50" s="5">
         <v>2</v>
       </c>
-      <c r="J50" s="53" t="s">
-        <v>376</v>
+      <c r="J50" s="48" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7457,8 +7705,8 @@
       <c r="I51" s="5">
         <v>3</v>
       </c>
-      <c r="J51" s="53" t="s">
-        <v>377</v>
+      <c r="J51" s="48" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
@@ -7515,8 +7763,8 @@
       <c r="I53" s="5">
         <v>3</v>
       </c>
-      <c r="J53" s="53" t="s">
-        <v>378</v>
+      <c r="J53" s="48" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7541,8 +7789,8 @@
       <c r="I54" s="5">
         <v>3</v>
       </c>
-      <c r="J54" s="53" t="s">
-        <v>379</v>
+      <c r="J54" s="48" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7569,8 +7817,8 @@
       <c r="I55" s="5">
         <v>3</v>
       </c>
-      <c r="J55" s="53" t="s">
-        <v>380</v>
+      <c r="J55" s="48" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7599,8 +7847,8 @@
       <c r="I56" s="5">
         <v>2</v>
       </c>
-      <c r="J56" s="53" t="s">
-        <v>381</v>
+      <c r="J56" s="48" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7627,8 +7875,8 @@
       <c r="I57" s="5">
         <v>3</v>
       </c>
-      <c r="J57" s="53" t="s">
-        <v>382</v>
+      <c r="J57" s="48" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7655,8 +7903,8 @@
       <c r="I58" s="5">
         <v>3</v>
       </c>
-      <c r="J58" s="53" t="s">
-        <v>383</v>
+      <c r="J58" s="48" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7683,8 +7931,8 @@
       <c r="I59" s="5">
         <v>3</v>
       </c>
-      <c r="J59" s="53" t="s">
-        <v>384</v>
+      <c r="J59" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -7767,8 +8015,8 @@
       <c r="I62" s="1">
         <v>2</v>
       </c>
-      <c r="J62" s="56" t="s">
-        <v>390</v>
+      <c r="J62" s="51" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7795,8 +8043,8 @@
       <c r="I63" s="1">
         <v>2</v>
       </c>
-      <c r="J63" s="56" t="s">
-        <v>385</v>
+      <c r="J63" s="51" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7823,8 +8071,8 @@
       <c r="I64" s="1">
         <v>2</v>
       </c>
-      <c r="J64" s="56" t="s">
-        <v>386</v>
+      <c r="J64" s="51" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7851,8 +8099,8 @@
       <c r="I65" s="1">
         <v>2</v>
       </c>
-      <c r="J65" s="67" t="s">
-        <v>390</v>
+      <c r="J65" s="63" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7879,8 +8127,8 @@
       <c r="I66" s="1">
         <v>2</v>
       </c>
-      <c r="J66" s="56" t="s">
-        <v>391</v>
+      <c r="J66" s="51" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7907,27 +8155,33 @@
       <c r="I67" s="1">
         <v>2</v>
       </c>
-      <c r="J67" s="56" t="s">
-        <v>392</v>
+      <c r="J67" s="51" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J68" s="50"/>
+      <c r="J68" s="48"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J69" s="50"/>
+      <c r="J69" s="48"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J70" s="50"/>
+      <c r="J70" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I67"/>
   <customSheetViews>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
-      <selection activeCell="N17" sqref="N17"/>
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="D1">
+      <selection activeCell="O33" sqref="O33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-      <autoFilter ref="A1:I67"/>
+      <autoFilter ref="A1:I67">
+        <filterColumn colId="8">
+          <filters>
+            <filter val="1"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
     <customSheetView guid="{70C04772-DBF8-4CB2-8468-8EEB47E858EE}" scale="85" showAutoFilter="1">
       <selection activeCell="M4" sqref="K4:M4"/>
@@ -7935,17 +8189,11 @@
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A1:I67"/>
     </customSheetView>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" filter="1" showAutoFilter="1" topLeftCell="D1">
-      <selection activeCell="O33" sqref="O33"/>
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
+      <selection activeCell="N17" sqref="N17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
-      <autoFilter ref="A1:I67">
-        <filterColumn colId="8">
-          <filters>
-            <filter val="1"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:I67"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7981,203 +8229,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57" t="s">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57" t="s">
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57" t="s">
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57" t="s">
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="62" t="s">
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="64"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="70"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="62" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="62" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="62" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="62" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="62" t="s">
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="62" t="s">
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="62" t="s">
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="62" t="s">
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="57" t="s">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="19">
         <v>4</v>
       </c>
@@ -11929,7 +12177,7 @@
   </sheetData>
   <autoFilter ref="A2:D70"/>
   <customSheetViews>
-    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -11941,7 +12189,7 @@
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId2"/>
       <autoFilter ref="A2:D70"/>
     </customSheetView>
-    <customSheetView guid="{389022EC-185D-42EE-9DE0-73B1525F48D9}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{47AFC98A-5605-4276-9025-C8AAF1B90CC1}" scale="85" showAutoFilter="1">
       <selection activeCell="O27" sqref="O27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId3"/>
@@ -11949,6 +12197,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="A1:AU1"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AQ3:AU3"/>
@@ -11965,13 +12220,6 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="W2:AA2"/>
     <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
